--- a/BANK_Index_clean.xlsx
+++ b/BANK_Index_clean.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ir/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ir/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEEB7503-980D-1944-BF14-64D349BBA499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C250723B-D692-1642-A528-970F4B6D70E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2422" uniqueCount="174">
   <si>
     <t>Bankcd</t>
   </si>
@@ -914,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V298"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19732,4 +19733,8552 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6D7F29-9473-9440-AD39-E534A168FC53}">
+  <dimension ref="A1:I298"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4480585000000</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2850561000000</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2.76</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1.35E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5173352000000</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3296146000000</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.63</v>
+      </c>
+      <c r="H5" s="1">
+        <v>14.26</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1.4800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6685049000000</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4910358000000</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2.04</v>
+      </c>
+      <c r="H6" s="1">
+        <v>16.48</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1">
+        <v>7539153000000</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5660621000000</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="H7" s="1">
+        <v>18.87</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="1">
+        <v>8817961000000</v>
+      </c>
+      <c r="F8" s="1">
+        <v>6342814000000</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2.12</v>
+      </c>
+      <c r="H8" s="1">
+        <v>18.32</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2.2100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="1">
+        <v>9173995000000</v>
+      </c>
+      <c r="F9" s="1">
+        <v>6864696000000</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="H9" s="1">
+        <v>18.13</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2.4299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="1">
+        <v>10097786000000</v>
+      </c>
+      <c r="F10" s="1">
+        <v>7607791000000</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="H10" s="1">
+        <v>18.04</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2.9100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="1">
+        <v>10885223000000</v>
+      </c>
+      <c r="F11" s="1">
+        <v>8483275000000</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="H11" s="1">
+        <v>17.28</v>
+      </c>
+      <c r="I11" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="1">
+        <v>11729171000000</v>
+      </c>
+      <c r="F12" s="1">
+        <v>9135860000000</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2.12</v>
+      </c>
+      <c r="H12" s="1">
+        <v>14.53</v>
+      </c>
+      <c r="I12" s="1">
+        <v>3.5299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="1">
+        <v>12939748000000</v>
+      </c>
+      <c r="F13" s="1">
+        <v>9973362000000</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1.83</v>
+      </c>
+      <c r="H13" s="1">
+        <v>12.58</v>
+      </c>
+      <c r="I13" s="1">
+        <v>3.78E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="1">
+        <v>13657924000000</v>
+      </c>
+      <c r="F14" s="1">
+        <v>10896558000000</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1.84</v>
+      </c>
+      <c r="H14" s="1">
+        <v>12.24</v>
+      </c>
+      <c r="I14" s="1">
+        <v>4.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="1">
+        <v>14883596000000</v>
+      </c>
+      <c r="F15" s="1">
+        <v>11819272000000</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="H15" s="1">
+        <v>12.06</v>
+      </c>
+      <c r="I15" s="1">
+        <v>3.9699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="1">
+        <v>15817548000000</v>
+      </c>
+      <c r="F16" s="1">
+        <v>13068785000000</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.84</v>
+      </c>
+      <c r="H16" s="1">
+        <v>11.45</v>
+      </c>
+      <c r="I16" s="1">
+        <v>4.1799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="1">
+        <v>16879171000000</v>
+      </c>
+      <c r="F17" s="1">
+        <v>14216477000000</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1.85</v>
+      </c>
+      <c r="H17" s="1">
+        <v>10.61</v>
+      </c>
+      <c r="I17" s="1">
+        <v>4.3400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5329507000000</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3183229000000</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3.18</v>
+      </c>
+      <c r="H18" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="I18" s="1">
+        <v>7.6E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="1">
+        <v>6375915000000</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3683575000000</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3.24</v>
+      </c>
+      <c r="H19" s="1">
+        <v>20.68</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1.15E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="1">
+        <v>8001323000000</v>
+      </c>
+      <c r="F20" s="1">
+        <v>4692947000000</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="H20" s="1">
+        <v>20.87</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="1">
+        <v>9075369000000</v>
+      </c>
+      <c r="F21" s="1">
+        <v>5526026000000</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H21" s="1">
+        <v>22.61</v>
+      </c>
+      <c r="I21" s="1">
+        <v>2.2800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="1">
+        <v>9987450000000</v>
+      </c>
+      <c r="F22" s="1">
+        <v>6325194000000</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="H22" s="1">
+        <v>22.51</v>
+      </c>
+      <c r="I22" s="1">
+        <v>2.9100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="1">
+        <v>11343079000000</v>
+      </c>
+      <c r="F23" s="1">
+        <v>7512312000000</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="H23" s="1">
+        <v>21.98</v>
+      </c>
+      <c r="I23" s="1">
+        <v>3.4200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="1">
+        <v>12223037000000</v>
+      </c>
+      <c r="F24" s="1">
+        <v>8590057000000</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2.74</v>
+      </c>
+      <c r="H24" s="1">
+        <v>21.23</v>
+      </c>
+      <c r="I24" s="1">
+        <v>3.5900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="1">
+        <v>12898675000000</v>
+      </c>
+      <c r="F25" s="1">
+        <v>9474523000000</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="H25" s="1">
+        <v>19.739999999999998</v>
+      </c>
+      <c r="I25" s="1">
+        <v>4.1200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="1">
+        <v>13668533000000</v>
+      </c>
+      <c r="F26" s="1">
+        <v>10485140000000</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2.63</v>
+      </c>
+      <c r="H26" s="1">
+        <v>17.27</v>
+      </c>
+      <c r="I26" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="1">
+        <v>15402915000000</v>
+      </c>
+      <c r="F27" s="1">
+        <v>11757032000000</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H27" s="1">
+        <v>15.44</v>
+      </c>
+      <c r="I27" s="1">
+        <v>4.5900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="1">
+        <v>16363754000000</v>
+      </c>
+      <c r="F28" s="1">
+        <v>12903441000000</v>
+      </c>
+      <c r="G28" s="1">
+        <v>2.21</v>
+      </c>
+      <c r="H28" s="1">
+        <v>14.8</v>
+      </c>
+      <c r="I28" s="1">
+        <v>4.9099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="1">
+        <v>17108678000000</v>
+      </c>
+      <c r="F29" s="1">
+        <v>13365430000000</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2.31</v>
+      </c>
+      <c r="H29" s="1">
+        <v>14.04</v>
+      </c>
+      <c r="I29" s="1">
+        <v>5.2299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="1">
+        <v>18366293000000</v>
+      </c>
+      <c r="F30" s="1">
+        <v>14540667000000</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="H30" s="1">
+        <v>13.18</v>
+      </c>
+      <c r="I30" s="1">
+        <v>5.3699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="1">
+        <v>20614976000000</v>
+      </c>
+      <c r="F31" s="1">
+        <v>16231369000000</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2.19</v>
+      </c>
+      <c r="H31" s="1">
+        <v>12.12</v>
+      </c>
+      <c r="I31" s="1">
+        <v>5.3900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="1">
+        <v>6898413000000</v>
+      </c>
+      <c r="F32" s="1">
+        <v>4073229000000</v>
+      </c>
+      <c r="G32" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="H32" s="1">
+        <v>16.149999999999999</v>
+      </c>
+      <c r="I32" s="1">
+        <v>6.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="1">
+        <v>8223446000000</v>
+      </c>
+      <c r="F33" s="1">
+        <v>4571994000000</v>
+      </c>
+      <c r="G33" s="1">
+        <v>2.95</v>
+      </c>
+      <c r="H33" s="1">
+        <v>19.39</v>
+      </c>
+      <c r="I33" s="1">
+        <v>9.9000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="1">
+        <v>9771277000000</v>
+      </c>
+      <c r="F34" s="1">
+        <v>5728626000000</v>
+      </c>
+      <c r="G34" s="1">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="H34" s="1">
+        <v>20.14</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1.32E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="1">
+        <v>11145557000000</v>
+      </c>
+      <c r="F35" s="1">
+        <v>6790506000000</v>
+      </c>
+      <c r="G35" s="1">
+        <v>2.44</v>
+      </c>
+      <c r="H35" s="1">
+        <v>22.79</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1.89E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="1">
+        <v>12261219000000</v>
+      </c>
+      <c r="F36" s="1">
+        <v>7788897000000</v>
+      </c>
+      <c r="G36" s="1">
+        <v>2.61</v>
+      </c>
+      <c r="H36" s="1">
+        <v>23.44</v>
+      </c>
+      <c r="I36" s="1">
+        <v>2.5100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="1">
+        <v>13642910000000</v>
+      </c>
+      <c r="F37" s="1">
+        <v>8803692000000</v>
+      </c>
+      <c r="G37" s="1">
+        <v>2.66</v>
+      </c>
+      <c r="H37" s="1">
+        <v>23.02</v>
+      </c>
+      <c r="I37" s="1">
+        <v>2.6800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="1">
+        <v>14620825000000</v>
+      </c>
+      <c r="F38" s="1">
+        <v>9922374000000</v>
+      </c>
+      <c r="G38" s="1">
+        <v>2.57</v>
+      </c>
+      <c r="H38" s="1">
+        <v>21.92</v>
+      </c>
+      <c r="I38" s="1">
+        <v>3.3599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="1">
+        <v>15556601000000</v>
+      </c>
+      <c r="F39" s="1">
+        <v>11026331000000</v>
+      </c>
+      <c r="G39" s="1">
+        <v>2.66</v>
+      </c>
+      <c r="H39" s="1">
+        <v>19.96</v>
+      </c>
+      <c r="I39" s="1">
+        <v>3.8899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="1">
+        <v>16281939000000</v>
+      </c>
+      <c r="F40" s="1">
+        <v>11933466000000</v>
+      </c>
+      <c r="G40" s="1">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="H40" s="1">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="I40" s="1">
+        <v>4.3200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" s="1">
+        <v>17825302000000</v>
+      </c>
+      <c r="F41" s="1">
+        <v>13056846000000</v>
+      </c>
+      <c r="G41" s="1">
+        <v>2.16</v>
+      </c>
+      <c r="H41" s="1">
+        <v>15.24</v>
+      </c>
+      <c r="I41" s="1">
+        <v>4.7500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="1">
+        <v>19226349000000</v>
+      </c>
+      <c r="F42" s="1">
+        <v>14233448000000</v>
+      </c>
+      <c r="G42" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="H42" s="1">
+        <v>14.35</v>
+      </c>
+      <c r="I42" s="1">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="1">
+        <v>21408934000000</v>
+      </c>
+      <c r="F43" s="1">
+        <v>15419905000000</v>
+      </c>
+      <c r="G43" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H43" s="1">
+        <v>13.79</v>
+      </c>
+      <c r="I43" s="1">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="1">
+        <v>22977655000000</v>
+      </c>
+      <c r="F44" s="1">
+        <v>16761319000000</v>
+      </c>
+      <c r="G44" s="1">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="H44" s="1">
+        <v>13.05</v>
+      </c>
+      <c r="I44" s="1">
+        <v>5.5199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="1">
+        <v>25134726000000</v>
+      </c>
+      <c r="F45" s="1">
+        <v>18624308000000</v>
+      </c>
+      <c r="G45" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="H45" s="1">
+        <v>11.95</v>
+      </c>
+      <c r="I45" s="1">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" s="1">
+        <v>8887905000000</v>
+      </c>
+      <c r="F46" s="1">
+        <v>4956741000000</v>
+      </c>
+      <c r="G46" s="1">
+        <v>2.57</v>
+      </c>
+      <c r="H46" s="1">
+        <v>22.49</v>
+      </c>
+      <c r="I46" s="1">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="1">
+        <v>9622026000000</v>
+      </c>
+      <c r="F47" s="1">
+        <v>5628705000000</v>
+      </c>
+      <c r="G47" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="H47" s="1">
+        <v>20.46</v>
+      </c>
+      <c r="I47" s="1">
+        <v>1.38E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" s="1">
+        <v>10862935000000</v>
+      </c>
+      <c r="F48" s="1">
+        <v>6433399000000</v>
+      </c>
+      <c r="G48" s="1">
+        <v>2.81</v>
+      </c>
+      <c r="H48" s="1">
+        <v>20.74</v>
+      </c>
+      <c r="I48" s="1">
+        <v>1.9099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49" s="1">
+        <v>11811411000000</v>
+      </c>
+      <c r="F49" s="1">
+        <v>7224713000000</v>
+      </c>
+      <c r="G49" s="1">
+        <v>2.79</v>
+      </c>
+      <c r="H49" s="1">
+        <v>20.89</v>
+      </c>
+      <c r="I49" s="1">
+        <v>2.0899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" t="s">
+        <v>54</v>
+      </c>
+      <c r="E50" s="1">
+        <v>12533397000000</v>
+      </c>
+      <c r="F50" s="1">
+        <v>8098067000000</v>
+      </c>
+      <c r="G50" s="1">
+        <v>2.92</v>
+      </c>
+      <c r="H50" s="1">
+        <v>19.57</v>
+      </c>
+      <c r="I50" s="1">
+        <v>2.5600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" t="s">
+        <v>55</v>
+      </c>
+      <c r="E51" s="1">
+        <v>13538360000000</v>
+      </c>
+      <c r="F51" s="1">
+        <v>8909918000000</v>
+      </c>
+      <c r="G51" s="1">
+        <v>2.66</v>
+      </c>
+      <c r="H51" s="1">
+        <v>16.79</v>
+      </c>
+      <c r="I51" s="1">
+        <v>2.86E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" s="1">
+        <v>15038001000000</v>
+      </c>
+      <c r="F52" s="1">
+        <v>9719639000000</v>
+      </c>
+      <c r="G52" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="H52" s="1">
+        <v>15.14</v>
+      </c>
+      <c r="I52" s="1">
+        <v>3.1199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" t="s">
+        <v>57</v>
+      </c>
+      <c r="E53" s="1">
+        <v>16194279000000</v>
+      </c>
+      <c r="F53" s="1">
+        <v>10720611000000</v>
+      </c>
+      <c r="G53" s="1">
+        <v>2280000</v>
+      </c>
+      <c r="H53" s="1">
+        <v>14.57</v>
+      </c>
+      <c r="I53" s="1">
+        <v>3.3799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" t="s">
+        <v>69</v>
+      </c>
+      <c r="D54" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" s="1">
+        <v>17346290000000</v>
+      </c>
+      <c r="F54" s="1">
+        <v>11940685000000</v>
+      </c>
+      <c r="G54" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="H54" s="1">
+        <v>13.66</v>
+      </c>
+      <c r="I54" s="1">
+        <v>3.5700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E55" s="1">
+        <v>18542861000000</v>
+      </c>
+      <c r="F55" s="1">
+        <v>13360188000000</v>
+      </c>
+      <c r="G55" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="H55" s="1">
+        <v>12.43</v>
+      </c>
+      <c r="I55" s="1">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56" s="1">
+        <v>20372901000000</v>
+      </c>
+      <c r="F56" s="1">
+        <v>14552433000000</v>
+      </c>
+      <c r="G56" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H56" s="1">
+        <v>11.35</v>
+      </c>
+      <c r="I56" s="1">
+        <v>3.7699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" t="s">
+        <v>47</v>
+      </c>
+      <c r="E57" s="1">
+        <v>505370856000</v>
+      </c>
+      <c r="F57" s="1">
+        <v>400142777000</v>
+      </c>
+      <c r="H57" s="1">
+        <v>25.34</v>
+      </c>
+      <c r="I57" s="1">
+        <v>1.38E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" t="s">
+        <v>48</v>
+      </c>
+      <c r="E58" s="1">
+        <v>632425959000</v>
+      </c>
+      <c r="F58" s="1">
+        <v>499386429000</v>
+      </c>
+      <c r="H58" s="1">
+        <v>26.06</v>
+      </c>
+      <c r="I58" s="1">
+        <v>1.95E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" t="s">
+        <v>49</v>
+      </c>
+      <c r="E59" s="1">
+        <v>900884448000</v>
+      </c>
+      <c r="F59" s="1">
+        <v>701597461000</v>
+      </c>
+      <c r="H59" s="1">
+        <v>24.54</v>
+      </c>
+      <c r="I59" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" t="s">
+        <v>72</v>
+      </c>
+      <c r="D60" t="s">
+        <v>50</v>
+      </c>
+      <c r="E60" s="1">
+        <v>1132767000000</v>
+      </c>
+      <c r="F60" s="1">
+        <v>854339000000</v>
+      </c>
+      <c r="H60" s="1">
+        <v>24.64</v>
+      </c>
+      <c r="I60" s="1">
+        <v>2.35E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" t="s">
+        <v>51</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1345279000000</v>
+      </c>
+      <c r="F61" s="1">
+        <v>983254000000</v>
+      </c>
+      <c r="H61" s="1">
+        <v>24.67</v>
+      </c>
+      <c r="I61" s="1">
+        <v>2.5899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D62" t="s">
+        <v>52</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1813266000000</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1229165000000</v>
+      </c>
+      <c r="G62" s="1">
+        <v>2.65</v>
+      </c>
+      <c r="H62" s="1">
+        <v>26.65</v>
+      </c>
+      <c r="I62" s="1">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63" t="s">
+        <v>53</v>
+      </c>
+      <c r="E63" s="1">
+        <v>2170345000000</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1357057000000</v>
+      </c>
+      <c r="G63" s="1">
+        <v>2.44</v>
+      </c>
+      <c r="H63" s="1">
+        <v>22.39</v>
+      </c>
+      <c r="I63" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" t="s">
+        <v>72</v>
+      </c>
+      <c r="D64" t="s">
+        <v>54</v>
+      </c>
+      <c r="E64" s="1">
+        <v>2267780000000</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1593148000000</v>
+      </c>
+      <c r="G64" s="1">
+        <v>2.48</v>
+      </c>
+      <c r="H64" s="1">
+        <v>21.21</v>
+      </c>
+      <c r="I64" s="1">
+        <v>2.9399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" t="s">
+        <v>72</v>
+      </c>
+      <c r="D65" t="s">
+        <v>55</v>
+      </c>
+      <c r="E65" s="1">
+        <v>2483923000000</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1779408000000</v>
+      </c>
+      <c r="G65" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H65" s="1">
+        <v>18.89</v>
+      </c>
+      <c r="I65" s="1">
+        <v>2.86E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" t="s">
+        <v>72</v>
+      </c>
+      <c r="D66" t="s">
+        <v>56</v>
+      </c>
+      <c r="E66" s="1">
+        <v>2694751000000</v>
+      </c>
+      <c r="F66" s="1">
+        <v>2079814000000</v>
+      </c>
+      <c r="G66" s="1">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="H66" s="1">
+        <v>17.28</v>
+      </c>
+      <c r="I66" s="1">
+        <v>3.0099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" t="s">
+        <v>72</v>
+      </c>
+      <c r="D67" t="s">
+        <v>57</v>
+      </c>
+      <c r="E67" s="1">
+        <v>3086893000000</v>
+      </c>
+      <c r="F67" s="1">
+        <v>2430695000000</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="H67" s="1">
+        <v>15.35</v>
+      </c>
+      <c r="I67" s="1">
+        <v>3.5200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" t="s">
+        <v>72</v>
+      </c>
+      <c r="D68" t="s">
+        <v>58</v>
+      </c>
+      <c r="E68" s="1">
+        <v>3303512000000</v>
+      </c>
+      <c r="F68" s="1">
+        <v>2934082000000</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1.83</v>
+      </c>
+      <c r="H68" s="1">
+        <v>14.27</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" t="s">
+        <v>72</v>
+      </c>
+      <c r="D69" t="s">
+        <v>59</v>
+      </c>
+      <c r="E69" s="1">
+        <v>3759063000000</v>
+      </c>
+      <c r="F69" s="1">
+        <v>3441451000000</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1.94</v>
+      </c>
+      <c r="H69" s="1">
+        <v>14.02</v>
+      </c>
+      <c r="I69" s="1">
+        <v>4.3099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" t="s">
+        <v>72</v>
+      </c>
+      <c r="D70" t="s">
+        <v>60</v>
+      </c>
+      <c r="E70" s="1">
+        <v>4042894000000</v>
+      </c>
+      <c r="F70" s="1">
+        <v>3965674000000</v>
+      </c>
+      <c r="G70" s="1">
+        <v>2.36</v>
+      </c>
+      <c r="H70" s="1">
+        <v>12.62</v>
+      </c>
+      <c r="I70" s="1">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71" t="s">
+        <v>75</v>
+      </c>
+      <c r="D71" t="s">
+        <v>47</v>
+      </c>
+      <c r="E71" s="1">
+        <v>1555809000000</v>
+      </c>
+      <c r="F71" s="1">
+        <v>1104460000000</v>
+      </c>
+      <c r="G71" s="1">
+        <v>2.84</v>
+      </c>
+      <c r="H71" s="1">
+        <v>17.170000000000002</v>
+      </c>
+      <c r="I71" s="1">
+        <v>1.11E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" t="s">
+        <v>75</v>
+      </c>
+      <c r="D72" t="s">
+        <v>48</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1865815000000</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1328590000000</v>
+      </c>
+      <c r="G72" s="1">
+        <v>3.01</v>
+      </c>
+      <c r="H72" s="1">
+        <v>20.86</v>
+      </c>
+      <c r="I72" s="1">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" t="s">
+        <v>75</v>
+      </c>
+      <c r="D73" t="s">
+        <v>49</v>
+      </c>
+      <c r="E73" s="1">
+        <v>2372055000000</v>
+      </c>
+      <c r="F73" s="1">
+        <v>1839314000000</v>
+      </c>
+      <c r="G73" s="1">
+        <v>2.29</v>
+      </c>
+      <c r="H73" s="1">
+        <v>19.260000000000002</v>
+      </c>
+      <c r="I73" s="1">
+        <v>1.5699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74" t="s">
+        <v>75</v>
+      </c>
+      <c r="D74" t="s">
+        <v>50</v>
+      </c>
+      <c r="E74" s="1">
+        <v>2867847000000</v>
+      </c>
+      <c r="F74" s="1">
+        <v>2236927000000</v>
+      </c>
+      <c r="G74" s="1">
+        <v>2.46</v>
+      </c>
+      <c r="H74" s="1">
+        <v>20.079999999999998</v>
+      </c>
+      <c r="I74" s="1">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" t="s">
+        <v>75</v>
+      </c>
+      <c r="D75" t="s">
+        <v>51</v>
+      </c>
+      <c r="E75" s="1">
+        <v>3283232000000</v>
+      </c>
+      <c r="F75" s="1">
+        <v>2561750000000</v>
+      </c>
+      <c r="G75" s="1">
+        <v>2.61</v>
+      </c>
+      <c r="H75" s="1">
+        <v>20.49</v>
+      </c>
+      <c r="I75" s="1">
+        <v>2.47E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>73</v>
+      </c>
+      <c r="B76" t="s">
+        <v>74</v>
+      </c>
+      <c r="C76" t="s">
+        <v>75</v>
+      </c>
+      <c r="D76" t="s">
+        <v>52</v>
+      </c>
+      <c r="E76" s="1">
+        <v>3728412000000</v>
+      </c>
+      <c r="F76" s="1">
+        <v>2947299000000</v>
+      </c>
+      <c r="G76" s="1">
+        <v>2.59</v>
+      </c>
+      <c r="H76" s="1">
+        <v>18.43</v>
+      </c>
+      <c r="I76" s="1">
+        <v>3.0499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>73</v>
+      </c>
+      <c r="B77" t="s">
+        <v>74</v>
+      </c>
+      <c r="C77" t="s">
+        <v>75</v>
+      </c>
+      <c r="D77" t="s">
+        <v>53</v>
+      </c>
+      <c r="E77" s="1">
+        <v>4157833000000</v>
+      </c>
+      <c r="F77" s="1">
+        <v>3266368000000</v>
+      </c>
+      <c r="G77" s="1">
+        <v>2.52</v>
+      </c>
+      <c r="H77" s="1">
+        <v>15.49</v>
+      </c>
+      <c r="I77" s="1">
+        <v>2.9700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>73</v>
+      </c>
+      <c r="B78" t="s">
+        <v>74</v>
+      </c>
+      <c r="C78" t="s">
+        <v>75</v>
+      </c>
+      <c r="D78" t="s">
+        <v>54</v>
+      </c>
+      <c r="E78" s="1">
+        <v>4029668000000</v>
+      </c>
+      <c r="F78" s="1">
+        <v>3431735000000</v>
+      </c>
+      <c r="G78" s="1">
+        <v>2.36</v>
+      </c>
+      <c r="H78" s="1">
+        <v>14.87</v>
+      </c>
+      <c r="I78" s="1">
+        <v>3.4200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>73</v>
+      </c>
+      <c r="B79" t="s">
+        <v>74</v>
+      </c>
+      <c r="C79" t="s">
+        <v>75</v>
+      </c>
+      <c r="D79" t="s">
+        <v>55</v>
+      </c>
+      <c r="E79" s="1">
+        <v>4484814000000</v>
+      </c>
+      <c r="F79" s="1">
+        <v>3722006000000</v>
+      </c>
+      <c r="G79" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="H79" s="1">
+        <v>13.46</v>
+      </c>
+      <c r="I79" s="1">
+        <v>3.5900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>73</v>
+      </c>
+      <c r="B80" t="s">
+        <v>74</v>
+      </c>
+      <c r="C80" t="s">
+        <v>75</v>
+      </c>
+      <c r="D80" t="s">
+        <v>56</v>
+      </c>
+      <c r="E80" s="1">
+        <v>4728589000000</v>
+      </c>
+      <c r="F80" s="1">
+        <v>4102959000000</v>
+      </c>
+      <c r="G80" s="1">
+        <v>2.02</v>
+      </c>
+      <c r="H80" s="1">
+        <v>12.22</v>
+      </c>
+      <c r="I80" s="1">
+        <v>3.4599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>73</v>
+      </c>
+      <c r="B81" t="s">
+        <v>74</v>
+      </c>
+      <c r="C81" t="s">
+        <v>75</v>
+      </c>
+      <c r="D81" t="s">
+        <v>57</v>
+      </c>
+      <c r="E81" s="1">
+        <v>4930345000000</v>
+      </c>
+      <c r="F81" s="1">
+        <v>4456914000000</v>
+      </c>
+      <c r="G81" s="1">
+        <v>1.58</v>
+      </c>
+      <c r="H81" s="1">
+        <v>11.4</v>
+      </c>
+      <c r="I81" s="1">
+        <v>3.56E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>73</v>
+      </c>
+      <c r="B82" t="s">
+        <v>74</v>
+      </c>
+      <c r="C82" t="s">
+        <v>75</v>
+      </c>
+      <c r="D82" t="s">
+        <v>58</v>
+      </c>
+      <c r="E82" s="1">
+        <v>5724489000000</v>
+      </c>
+      <c r="F82" s="1">
+        <v>4854228000000</v>
+      </c>
+      <c r="G82" s="1">
+        <v>1.68</v>
+      </c>
+      <c r="H82" s="1">
+        <v>11.17</v>
+      </c>
+      <c r="I82" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>73</v>
+      </c>
+      <c r="B83" t="s">
+        <v>74</v>
+      </c>
+      <c r="C83" t="s">
+        <v>75</v>
+      </c>
+      <c r="D83" t="s">
+        <v>59</v>
+      </c>
+      <c r="E83" s="1">
+        <v>6005070000000</v>
+      </c>
+      <c r="F83" s="1">
+        <v>5304275000000</v>
+      </c>
+      <c r="G83" s="1">
+        <v>1.58</v>
+      </c>
+      <c r="H83" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="I83" s="1">
+        <v>3.8600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>73</v>
+      </c>
+      <c r="B84" t="s">
+        <v>74</v>
+      </c>
+      <c r="C84" t="s">
+        <v>75</v>
+      </c>
+      <c r="D84" t="s">
+        <v>60</v>
+      </c>
+      <c r="E84" s="1">
+        <v>6539254000000</v>
+      </c>
+      <c r="F84" s="1">
+        <v>5848424000000</v>
+      </c>
+      <c r="G84" s="1">
+        <v>1.57</v>
+      </c>
+      <c r="H84" s="1">
+        <v>10.35</v>
+      </c>
+      <c r="I84" s="1">
+        <v>3.9899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>76</v>
+      </c>
+      <c r="B85" t="s">
+        <v>77</v>
+      </c>
+      <c r="C85" t="s">
+        <v>78</v>
+      </c>
+      <c r="D85" t="s">
+        <v>47</v>
+      </c>
+      <c r="E85" s="1">
+        <v>763472893000</v>
+      </c>
+      <c r="F85" s="1">
+        <v>550988378000</v>
+      </c>
+      <c r="G85" s="1">
+        <v>3.12</v>
+      </c>
+      <c r="H85" s="1">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="I85" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>76</v>
+      </c>
+      <c r="B86" t="s">
+        <v>77</v>
+      </c>
+      <c r="C86" t="s">
+        <v>78</v>
+      </c>
+      <c r="D86" t="s">
+        <v>48</v>
+      </c>
+      <c r="E86" s="1">
+        <v>947293582000</v>
+      </c>
+      <c r="F86" s="1">
+        <v>697564670000</v>
+      </c>
+      <c r="G86" s="1">
+        <v>3.05</v>
+      </c>
+      <c r="H86" s="1">
+        <v>36.71</v>
+      </c>
+      <c r="I86" s="1">
+        <v>1.43E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>76</v>
+      </c>
+      <c r="B87" t="s">
+        <v>77</v>
+      </c>
+      <c r="C87" t="s">
+        <v>78</v>
+      </c>
+      <c r="D87" t="s">
+        <v>49</v>
+      </c>
+      <c r="E87" s="1">
+        <v>1295342342000</v>
+      </c>
+      <c r="F87" s="1">
+        <v>928854750000</v>
+      </c>
+      <c r="G87" s="1">
+        <v>2.19</v>
+      </c>
+      <c r="H87" s="1">
+        <v>25.86</v>
+      </c>
+      <c r="I87" s="1">
+        <v>1.72E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>76</v>
+      </c>
+      <c r="B88" t="s">
+        <v>77</v>
+      </c>
+      <c r="C88" t="s">
+        <v>78</v>
+      </c>
+      <c r="D88" t="s">
+        <v>50</v>
+      </c>
+      <c r="E88" s="1">
+        <v>1638679590000</v>
+      </c>
+      <c r="F88" s="1">
+        <v>1146489301000</v>
+      </c>
+      <c r="G88" s="1">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H88" s="1">
+        <v>23.27</v>
+      </c>
+      <c r="I88" s="1">
+        <v>1.8499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>76</v>
+      </c>
+      <c r="B89" t="s">
+        <v>77</v>
+      </c>
+      <c r="C89" t="s">
+        <v>78</v>
+      </c>
+      <c r="D89" t="s">
+        <v>51</v>
+      </c>
+      <c r="E89" s="1">
+        <v>1851055121000</v>
+      </c>
+      <c r="F89" s="1">
+        <v>1331436044000</v>
+      </c>
+      <c r="G89" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="H89" s="1">
+        <v>20.07</v>
+      </c>
+      <c r="I89" s="1">
+        <v>1.9400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>76</v>
+      </c>
+      <c r="B90" t="s">
+        <v>77</v>
+      </c>
+      <c r="C90" t="s">
+        <v>78</v>
+      </c>
+      <c r="D90" t="s">
+        <v>52</v>
+      </c>
+      <c r="E90" s="1">
+        <v>2134365000000</v>
+      </c>
+      <c r="F90" s="1">
+        <v>1544553000000</v>
+      </c>
+      <c r="G90" s="1">
+        <v>2.58</v>
+      </c>
+      <c r="H90" s="1">
+        <v>20.95</v>
+      </c>
+      <c r="I90" s="1">
+        <v>2.4199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>76</v>
+      </c>
+      <c r="B91" t="s">
+        <v>77</v>
+      </c>
+      <c r="C91" t="s">
+        <v>78</v>
+      </c>
+      <c r="D91" t="s">
+        <v>53</v>
+      </c>
+      <c r="E91" s="1">
+        <v>2419696000000</v>
+      </c>
+      <c r="F91" s="1">
+        <v>1767494000000</v>
+      </c>
+      <c r="G91" s="1">
+        <v>2.46</v>
+      </c>
+      <c r="H91" s="1">
+        <v>21.53</v>
+      </c>
+      <c r="I91" s="1">
+        <v>2.7300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>76</v>
+      </c>
+      <c r="B92" t="s">
+        <v>77</v>
+      </c>
+      <c r="C92" t="s">
+        <v>78</v>
+      </c>
+      <c r="D92" t="s">
+        <v>54</v>
+      </c>
+      <c r="E92" s="1">
+        <v>2724004000000</v>
+      </c>
+      <c r="F92" s="1">
+        <v>2028380000000</v>
+      </c>
+      <c r="G92" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H92" s="1">
+        <v>21.02</v>
+      </c>
+      <c r="I92" s="1">
+        <v>3.0499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>76</v>
+      </c>
+      <c r="B93" t="s">
+        <v>77</v>
+      </c>
+      <c r="C93" t="s">
+        <v>78</v>
+      </c>
+      <c r="D93" t="s">
+        <v>55</v>
+      </c>
+      <c r="E93" s="1">
+        <v>2954149000000</v>
+      </c>
+      <c r="F93" s="1">
+        <v>2245518000000</v>
+      </c>
+      <c r="G93" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H93" s="1">
+        <v>18.82</v>
+      </c>
+      <c r="I93" s="1">
+        <v>3.0599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>76</v>
+      </c>
+      <c r="B94" t="s">
+        <v>77</v>
+      </c>
+      <c r="C94" t="s">
+        <v>78</v>
+      </c>
+      <c r="D94" t="s">
+        <v>56</v>
+      </c>
+      <c r="E94" s="1">
+        <v>3002015000000</v>
+      </c>
+      <c r="F94" s="1">
+        <v>2762806000000</v>
+      </c>
+      <c r="G94" s="1">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="H94" s="1">
+        <v>16.350000000000001</v>
+      </c>
+      <c r="I94" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>76</v>
+      </c>
+      <c r="B95" t="s">
+        <v>77</v>
+      </c>
+      <c r="C95" t="s">
+        <v>78</v>
+      </c>
+      <c r="D95" t="s">
+        <v>57</v>
+      </c>
+      <c r="E95" s="1">
+        <v>3037936000000</v>
+      </c>
+      <c r="F95" s="1">
+        <v>3194600000000</v>
+      </c>
+      <c r="G95" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="H95" s="1">
+        <v>14.45</v>
+      </c>
+      <c r="I95" s="1">
+        <v>3.49E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>76</v>
+      </c>
+      <c r="B96" t="s">
+        <v>77</v>
+      </c>
+      <c r="C96" t="s">
+        <v>78</v>
+      </c>
+      <c r="D96" t="s">
+        <v>58</v>
+      </c>
+      <c r="E96" s="1">
+        <v>3227018000000</v>
+      </c>
+      <c r="F96" s="1">
+        <v>3549205000000</v>
+      </c>
+      <c r="G96" s="1">
+        <v>1.94</v>
+      </c>
+      <c r="H96" s="1">
+        <v>13.14</v>
+      </c>
+      <c r="I96" s="1">
+        <v>3.9699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>76</v>
+      </c>
+      <c r="B97" t="s">
+        <v>77</v>
+      </c>
+      <c r="C97" t="s">
+        <v>78</v>
+      </c>
+      <c r="D97" t="s">
+        <v>59</v>
+      </c>
+      <c r="E97" s="1">
+        <v>3627853000000</v>
+      </c>
+      <c r="F97" s="1">
+        <v>3972086000000</v>
+      </c>
+      <c r="G97" s="1">
+        <v>2.08</v>
+      </c>
+      <c r="H97" s="1">
+        <v>12.29</v>
+      </c>
+      <c r="I97" s="1">
+        <v>4.2299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>76</v>
+      </c>
+      <c r="B98" t="s">
+        <v>77</v>
+      </c>
+      <c r="C98" t="s">
+        <v>78</v>
+      </c>
+      <c r="D98" t="s">
+        <v>60</v>
+      </c>
+      <c r="E98" s="1">
+        <v>4076484000000</v>
+      </c>
+      <c r="F98" s="1">
+        <v>4533973000000</v>
+      </c>
+      <c r="G98" s="1">
+        <v>2.02</v>
+      </c>
+      <c r="H98" s="1">
+        <v>10.81</v>
+      </c>
+      <c r="I98" s="1">
+        <v>4.1599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>79</v>
+      </c>
+      <c r="B99" t="s">
+        <v>80</v>
+      </c>
+      <c r="C99" t="s">
+        <v>81</v>
+      </c>
+      <c r="D99" t="s">
+        <v>47</v>
+      </c>
+      <c r="E99" s="1">
+        <v>281276981000</v>
+      </c>
+      <c r="F99" s="1">
+        <v>221813598000</v>
+      </c>
+      <c r="G99" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="H99" s="1">
+        <v>33.409999999999997</v>
+      </c>
+      <c r="I99" s="1">
+        <v>7.9000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>79</v>
+      </c>
+      <c r="B100" t="s">
+        <v>80</v>
+      </c>
+      <c r="C100" t="s">
+        <v>81</v>
+      </c>
+      <c r="D100" t="s">
+        <v>48</v>
+      </c>
+      <c r="E100" s="1">
+        <v>360514036000</v>
+      </c>
+      <c r="F100" s="1">
+        <v>283741366000</v>
+      </c>
+      <c r="G100" s="1">
+        <v>3.02</v>
+      </c>
+      <c r="H100" s="1">
+        <v>4.32</v>
+      </c>
+      <c r="I100" s="1">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>79</v>
+      </c>
+      <c r="B101" t="s">
+        <v>80</v>
+      </c>
+      <c r="C101" t="s">
+        <v>81</v>
+      </c>
+      <c r="D101" t="s">
+        <v>49</v>
+      </c>
+      <c r="E101" s="1">
+        <v>454635208000</v>
+      </c>
+      <c r="F101" s="1">
+        <v>359517413000</v>
+      </c>
+      <c r="G101" s="1">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="H101" s="1">
+        <v>26.59</v>
+      </c>
+      <c r="I101" s="1">
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>79</v>
+      </c>
+      <c r="B102" t="s">
+        <v>80</v>
+      </c>
+      <c r="C102" t="s">
+        <v>81</v>
+      </c>
+      <c r="D102" t="s">
+        <v>50</v>
+      </c>
+      <c r="E102" s="1">
+        <v>562912342000</v>
+      </c>
+      <c r="F102" s="1">
+        <v>407391135000</v>
+      </c>
+      <c r="G102" s="1">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H102" s="1">
+        <v>23.22</v>
+      </c>
+      <c r="I102" s="1">
+        <v>1.43E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>79</v>
+      </c>
+      <c r="B103" t="s">
+        <v>80</v>
+      </c>
+      <c r="C103" t="s">
+        <v>81</v>
+      </c>
+      <c r="D103" t="s">
+        <v>51</v>
+      </c>
+      <c r="E103" s="1">
+        <v>850845147000</v>
+      </c>
+      <c r="F103" s="1">
+        <v>620641817000</v>
+      </c>
+      <c r="G103" s="1">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="H103" s="1">
+        <v>20.32</v>
+      </c>
+      <c r="I103" s="1">
+        <v>1.49E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>79</v>
+      </c>
+      <c r="B104" t="s">
+        <v>82</v>
+      </c>
+      <c r="C104" t="s">
+        <v>81</v>
+      </c>
+      <c r="D104" t="s">
+        <v>52</v>
+      </c>
+      <c r="E104" s="1">
+        <v>1021107702000</v>
+      </c>
+      <c r="F104" s="1">
+        <v>720780048000</v>
+      </c>
+      <c r="G104" s="1">
+        <v>2.37</v>
+      </c>
+      <c r="H104" s="1">
+        <v>16.78</v>
+      </c>
+      <c r="I104" s="1">
+        <v>1.61E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>79</v>
+      </c>
+      <c r="B105" t="s">
+        <v>82</v>
+      </c>
+      <c r="C105" t="s">
+        <v>81</v>
+      </c>
+      <c r="D105" t="s">
+        <v>53</v>
+      </c>
+      <c r="E105" s="1">
+        <v>1217002000000</v>
+      </c>
+      <c r="F105" s="1">
+        <v>847289000000</v>
+      </c>
+      <c r="G105" s="1">
+        <v>2.31</v>
+      </c>
+      <c r="H105" s="1">
+        <v>16.57</v>
+      </c>
+      <c r="I105" s="1">
+        <v>1.8100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>79</v>
+      </c>
+      <c r="B106" t="s">
+        <v>82</v>
+      </c>
+      <c r="C106" t="s">
+        <v>81</v>
+      </c>
+      <c r="D106" t="s">
+        <v>54</v>
+      </c>
+      <c r="E106" s="1">
+        <v>1533183000000</v>
+      </c>
+      <c r="F106" s="1">
+        <v>1024734000000</v>
+      </c>
+      <c r="G106" s="1">
+        <v>2.57</v>
+      </c>
+      <c r="H106" s="1">
+        <v>16.350000000000001</v>
+      </c>
+      <c r="I106" s="1">
+        <v>2.29E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>79</v>
+      </c>
+      <c r="B107" t="s">
+        <v>82</v>
+      </c>
+      <c r="C107" t="s">
+        <v>81</v>
+      </c>
+      <c r="D107" t="s">
+        <v>55</v>
+      </c>
+      <c r="E107" s="1">
+        <v>1733921000000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>1216138000000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>2.77</v>
+      </c>
+      <c r="H107" s="1">
+        <v>14.94</v>
+      </c>
+      <c r="I107" s="1">
+        <v>2.4500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>79</v>
+      </c>
+      <c r="B108" t="s">
+        <v>82</v>
+      </c>
+      <c r="C108" t="s">
+        <v>81</v>
+      </c>
+      <c r="D108" t="s">
+        <v>56</v>
+      </c>
+      <c r="E108" s="1">
+        <v>1921835000000</v>
+      </c>
+      <c r="F108" s="1">
+        <v>1475801000000</v>
+      </c>
+      <c r="G108" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="H108" s="1">
+        <v>13.18</v>
+      </c>
+      <c r="I108" s="1">
+        <v>2.5399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>79</v>
+      </c>
+      <c r="B109" t="s">
+        <v>82</v>
+      </c>
+      <c r="C109" t="s">
+        <v>81</v>
+      </c>
+      <c r="D109" t="s">
+        <v>57</v>
+      </c>
+      <c r="E109" s="1">
+        <v>2000420000000</v>
+      </c>
+      <c r="F109" s="1">
+        <v>1704230000000</v>
+      </c>
+      <c r="G109" s="1">
+        <v>2.37</v>
+      </c>
+      <c r="H109" s="1">
+        <v>11.62</v>
+      </c>
+      <c r="I109" s="1">
+        <v>2.7799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>79</v>
+      </c>
+      <c r="B110" t="s">
+        <v>82</v>
+      </c>
+      <c r="C110" t="s">
+        <v>81</v>
+      </c>
+      <c r="D110" t="s">
+        <v>58</v>
+      </c>
+      <c r="E110" s="1">
+        <v>2128557000000</v>
+      </c>
+      <c r="F110" s="1">
+        <v>1997529000000</v>
+      </c>
+      <c r="G110" s="1">
+        <v>2.35</v>
+      </c>
+      <c r="H110" s="1">
+        <v>11.49</v>
+      </c>
+      <c r="I110" s="1">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>79</v>
+      </c>
+      <c r="B111" t="s">
+        <v>82</v>
+      </c>
+      <c r="C111" t="s">
+        <v>81</v>
+      </c>
+      <c r="D111" t="s">
+        <v>59</v>
+      </c>
+      <c r="E111" s="1">
+        <v>2436935000000</v>
+      </c>
+      <c r="F111" s="1">
+        <v>2323205000000</v>
+      </c>
+      <c r="G111" s="1">
+        <v>2.62</v>
+      </c>
+      <c r="H111" s="1">
+        <v>11.3</v>
+      </c>
+      <c r="I111" s="1">
+        <v>3.15E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>79</v>
+      </c>
+      <c r="B112" t="s">
+        <v>82</v>
+      </c>
+      <c r="C112" t="s">
+        <v>81</v>
+      </c>
+      <c r="D112" t="s">
+        <v>60</v>
+      </c>
+      <c r="E112" s="1">
+        <v>2695935000000</v>
+      </c>
+      <c r="F112" s="1">
+        <v>2666297000000</v>
+      </c>
+      <c r="G112" s="1">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="H112" s="1">
+        <v>9.58</v>
+      </c>
+      <c r="I112" s="1">
+        <v>3.1800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>83</v>
+      </c>
+      <c r="B113" t="s">
+        <v>84</v>
+      </c>
+      <c r="C113" t="s">
+        <v>85</v>
+      </c>
+      <c r="D113" t="s">
+        <v>47</v>
+      </c>
+      <c r="E113" s="1">
+        <v>671219430000</v>
+      </c>
+      <c r="F113" s="1">
+        <v>554958528000</v>
+      </c>
+      <c r="G113" s="1">
+        <v>2.93</v>
+      </c>
+      <c r="H113" s="1">
+        <v>18.23</v>
+      </c>
+      <c r="I113" s="1">
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>83</v>
+      </c>
+      <c r="B114" t="s">
+        <v>84</v>
+      </c>
+      <c r="C114" t="s">
+        <v>85</v>
+      </c>
+      <c r="D114" t="s">
+        <v>48</v>
+      </c>
+      <c r="E114" s="1">
+        <v>785786000000</v>
+      </c>
+      <c r="F114" s="1">
+        <v>658360000000</v>
+      </c>
+      <c r="G114" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="H114" s="1">
+        <v>15.23</v>
+      </c>
+      <c r="I114" s="1">
+        <v>8.5000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>83</v>
+      </c>
+      <c r="B115" t="s">
+        <v>84</v>
+      </c>
+      <c r="C115" t="s">
+        <v>85</v>
+      </c>
+      <c r="D115" t="s">
+        <v>49</v>
+      </c>
+      <c r="E115" s="1">
+        <v>1127938000000</v>
+      </c>
+      <c r="F115" s="1">
+        <v>882979000000</v>
+      </c>
+      <c r="G115" s="1">
+        <v>2.59</v>
+      </c>
+      <c r="H115" s="1">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="I115" s="1">
+        <v>1.17E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>83</v>
+      </c>
+      <c r="B116" t="s">
+        <v>84</v>
+      </c>
+      <c r="C116" t="s">
+        <v>85</v>
+      </c>
+      <c r="D116" t="s">
+        <v>50</v>
+      </c>
+      <c r="E116" s="1">
+        <v>1416939000000</v>
+      </c>
+      <c r="F116" s="1">
+        <v>1057571000000</v>
+      </c>
+      <c r="G116" s="1">
+        <v>2.94</v>
+      </c>
+      <c r="H116" s="1">
+        <v>18.29</v>
+      </c>
+      <c r="I116" s="1">
+        <v>1.41E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>83</v>
+      </c>
+      <c r="B117" t="s">
+        <v>84</v>
+      </c>
+      <c r="C117" t="s">
+        <v>85</v>
+      </c>
+      <c r="D117" t="s">
+        <v>51</v>
+      </c>
+      <c r="E117" s="1">
+        <v>1644738000000</v>
+      </c>
+      <c r="F117" s="1">
+        <v>1205221000000</v>
+      </c>
+      <c r="G117" s="1">
+        <v>3.14</v>
+      </c>
+      <c r="H117" s="1">
+        <v>23.95</v>
+      </c>
+      <c r="I117" s="1">
+        <v>2.1499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>83</v>
+      </c>
+      <c r="B118" t="s">
+        <v>84</v>
+      </c>
+      <c r="C118" t="s">
+        <v>85</v>
+      </c>
+      <c r="D118" t="s">
+        <v>52</v>
+      </c>
+      <c r="E118" s="1">
+        <v>1926194000000</v>
+      </c>
+      <c r="F118" s="1">
+        <v>1384610000000</v>
+      </c>
+      <c r="G118" s="1">
+        <v>2.94</v>
+      </c>
+      <c r="H118" s="1">
+        <v>25.24</v>
+      </c>
+      <c r="I118" s="1">
+        <v>1.55E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>83</v>
+      </c>
+      <c r="B119" t="s">
+        <v>84</v>
+      </c>
+      <c r="C119" t="s">
+        <v>85</v>
+      </c>
+      <c r="D119" t="s">
+        <v>53</v>
+      </c>
+      <c r="E119" s="1">
+        <v>2146689000000</v>
+      </c>
+      <c r="F119" s="1">
+        <v>1574263000000</v>
+      </c>
+      <c r="G119" s="1">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H119" s="1">
+        <v>23.23</v>
+      </c>
+      <c r="I119" s="1">
+        <v>2.4899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>83</v>
+      </c>
+      <c r="B120" t="s">
+        <v>84</v>
+      </c>
+      <c r="C120" t="s">
+        <v>85</v>
+      </c>
+      <c r="D120" t="s">
+        <v>54</v>
+      </c>
+      <c r="E120" s="1">
+        <v>2433810000000</v>
+      </c>
+      <c r="F120" s="1">
+        <v>1812666000000</v>
+      </c>
+      <c r="G120" s="1">
+        <v>2.59</v>
+      </c>
+      <c r="H120" s="1">
+        <v>20.41</v>
+      </c>
+      <c r="I120" s="1">
+        <v>2.6700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>83</v>
+      </c>
+      <c r="B121" t="s">
+        <v>84</v>
+      </c>
+      <c r="C121" t="s">
+        <v>85</v>
+      </c>
+      <c r="D121" t="s">
+        <v>55</v>
+      </c>
+      <c r="E121" s="1">
+        <v>2732262000000</v>
+      </c>
+      <c r="F121" s="1">
+        <v>2048048000000</v>
+      </c>
+      <c r="G121" s="1">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="H121" s="1">
+        <v>16.98</v>
+      </c>
+      <c r="I121" s="1">
+        <v>3.15E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>83</v>
+      </c>
+      <c r="B122" t="s">
+        <v>84</v>
+      </c>
+      <c r="C122" t="s">
+        <v>85</v>
+      </c>
+      <c r="D122" t="s">
+        <v>56</v>
+      </c>
+      <c r="E122" s="1">
+        <v>3082242000000</v>
+      </c>
+      <c r="F122" s="1">
+        <v>2461586000000</v>
+      </c>
+      <c r="G122" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="H122" s="1">
+        <v>15.13</v>
+      </c>
+      <c r="I122" s="1">
+        <v>2.7300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>83</v>
+      </c>
+      <c r="B123" t="s">
+        <v>84</v>
+      </c>
+      <c r="C123" t="s">
+        <v>85</v>
+      </c>
+      <c r="D123" t="s">
+        <v>57</v>
+      </c>
+      <c r="E123" s="1">
+        <v>2966311000000</v>
+      </c>
+      <c r="F123" s="1">
+        <v>2804307000000</v>
+      </c>
+      <c r="G123" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H123" s="1">
+        <v>14.03</v>
+      </c>
+      <c r="I123" s="1">
+        <v>3.3599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>83</v>
+      </c>
+      <c r="B124" t="s">
+        <v>84</v>
+      </c>
+      <c r="C124" t="s">
+        <v>85</v>
+      </c>
+      <c r="D124" t="s">
+        <v>58</v>
+      </c>
+      <c r="E124" s="1">
+        <v>3167292000000</v>
+      </c>
+      <c r="F124" s="1">
+        <v>3056746000000</v>
+      </c>
+      <c r="G124" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="H124" s="1">
+        <v>12.94</v>
+      </c>
+      <c r="I124" s="1">
+        <v>3.8899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>83</v>
+      </c>
+      <c r="B125" t="s">
+        <v>84</v>
+      </c>
+      <c r="C125" t="s">
+        <v>85</v>
+      </c>
+      <c r="D125" t="s">
+        <v>59</v>
+      </c>
+      <c r="E125" s="1">
+        <v>3604088000000</v>
+      </c>
+      <c r="F125" s="1">
+        <v>3487601000000</v>
+      </c>
+      <c r="G125" s="1">
+        <v>2.11</v>
+      </c>
+      <c r="H125" s="1">
+        <v>12.4</v>
+      </c>
+      <c r="I125" s="1">
+        <v>3.95E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>83</v>
+      </c>
+      <c r="B126" t="s">
+        <v>84</v>
+      </c>
+      <c r="C126" t="s">
+        <v>85</v>
+      </c>
+      <c r="D126" t="s">
+        <v>60</v>
+      </c>
+      <c r="E126" s="1">
+        <v>3768151000000</v>
+      </c>
+      <c r="F126" s="1">
+        <v>3853931000000</v>
+      </c>
+      <c r="G126" s="1">
+        <v>2.14</v>
+      </c>
+      <c r="H126" s="1">
+        <v>6.81</v>
+      </c>
+      <c r="I126" s="1">
+        <v>3.9399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>86</v>
+      </c>
+      <c r="B127" t="s">
+        <v>87</v>
+      </c>
+      <c r="C127" t="s">
+        <v>88</v>
+      </c>
+      <c r="D127" t="s">
+        <v>47</v>
+      </c>
+      <c r="E127" s="1">
+        <v>943534000000</v>
+      </c>
+      <c r="F127" s="1">
+        <v>673167000000</v>
+      </c>
+      <c r="G127" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="H127" s="1">
+        <v>24.76</v>
+      </c>
+      <c r="I127" s="1">
+        <v>1.2699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>86</v>
+      </c>
+      <c r="B128" t="s">
+        <v>87</v>
+      </c>
+      <c r="C128" t="s">
+        <v>88</v>
+      </c>
+      <c r="D128" t="s">
+        <v>48</v>
+      </c>
+      <c r="E128" s="1">
+        <v>1250648000000</v>
+      </c>
+      <c r="F128" s="1">
+        <v>874362000000</v>
+      </c>
+      <c r="G128" s="1">
+        <v>3.42</v>
+      </c>
+      <c r="H128" s="1">
+        <v>27.41</v>
+      </c>
+      <c r="I128" s="1">
+        <v>2.06E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>86</v>
+      </c>
+      <c r="B129" t="s">
+        <v>87</v>
+      </c>
+      <c r="C129" t="s">
+        <v>88</v>
+      </c>
+      <c r="D129" t="s">
+        <v>49</v>
+      </c>
+      <c r="E129" s="1">
+        <v>1608146000000</v>
+      </c>
+      <c r="F129" s="1">
+        <v>1185822000000</v>
+      </c>
+      <c r="G129" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="H129" s="1">
+        <v>21.18</v>
+      </c>
+      <c r="I129" s="1">
+        <v>1.9599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>86</v>
+      </c>
+      <c r="B130" t="s">
+        <v>87</v>
+      </c>
+      <c r="C130" t="s">
+        <v>88</v>
+      </c>
+      <c r="D130" t="s">
+        <v>50</v>
+      </c>
+      <c r="E130" s="1">
+        <v>1897178000000</v>
+      </c>
+      <c r="F130" s="1">
+        <v>1431451000000</v>
+      </c>
+      <c r="G130" s="1">
+        <v>2.65</v>
+      </c>
+      <c r="H130" s="1">
+        <v>21.75</v>
+      </c>
+      <c r="I130" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>86</v>
+      </c>
+      <c r="B131" t="s">
+        <v>87</v>
+      </c>
+      <c r="C131" t="s">
+        <v>88</v>
+      </c>
+      <c r="D131" t="s">
+        <v>51</v>
+      </c>
+      <c r="E131" s="1">
+        <v>2220060000000</v>
+      </c>
+      <c r="F131" s="1">
+        <v>1641075000000</v>
+      </c>
+      <c r="G131" s="1">
+        <v>3.06</v>
+      </c>
+      <c r="H131" s="1">
+        <v>24.17</v>
+      </c>
+      <c r="I131" s="1">
+        <v>3.15E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>86</v>
+      </c>
+      <c r="B132" t="s">
+        <v>87</v>
+      </c>
+      <c r="C132" t="s">
+        <v>88</v>
+      </c>
+      <c r="D132" t="s">
+        <v>52</v>
+      </c>
+      <c r="E132" s="1">
+        <v>2532444000000</v>
+      </c>
+      <c r="F132" s="1">
+        <v>1904463000000</v>
+      </c>
+      <c r="G132" s="1">
+        <v>3.03</v>
+      </c>
+      <c r="H132" s="1">
+        <v>24.78</v>
+      </c>
+      <c r="I132" s="1">
+        <v>3.0300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>86</v>
+      </c>
+      <c r="B133" t="s">
+        <v>87</v>
+      </c>
+      <c r="C133" t="s">
+        <v>88</v>
+      </c>
+      <c r="D133" t="s">
+        <v>53</v>
+      </c>
+      <c r="E133" s="1">
+        <v>2775276000000</v>
+      </c>
+      <c r="F133" s="1">
+        <v>2197094000000</v>
+      </c>
+      <c r="G133" s="1">
+        <v>2.82</v>
+      </c>
+      <c r="H133" s="1">
+        <v>23.12</v>
+      </c>
+      <c r="I133" s="1">
+        <v>3.3300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>86</v>
+      </c>
+      <c r="B134" t="s">
+        <v>87</v>
+      </c>
+      <c r="C134" t="s">
+        <v>88</v>
+      </c>
+      <c r="D134" t="s">
+        <v>54</v>
+      </c>
+      <c r="E134" s="1">
+        <v>3304438000000</v>
+      </c>
+      <c r="F134" s="1">
+        <v>2513919000000</v>
+      </c>
+      <c r="G134" s="1">
+        <v>2.64</v>
+      </c>
+      <c r="H134" s="1">
+        <v>19.28</v>
+      </c>
+      <c r="I134" s="1">
+        <v>3.5299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>86</v>
+      </c>
+      <c r="B135" t="s">
+        <v>87</v>
+      </c>
+      <c r="C135" t="s">
+        <v>88</v>
+      </c>
+      <c r="D135" t="s">
+        <v>55</v>
+      </c>
+      <c r="E135" s="1">
+        <v>3571698000000</v>
+      </c>
+      <c r="F135" s="1">
+        <v>2824286000000</v>
+      </c>
+      <c r="G135" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="H135" s="1">
+        <v>17.09</v>
+      </c>
+      <c r="I135" s="1">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>86</v>
+      </c>
+      <c r="B136" t="s">
+        <v>87</v>
+      </c>
+      <c r="C136" t="s">
+        <v>88</v>
+      </c>
+      <c r="D136" t="s">
+        <v>56</v>
+      </c>
+      <c r="E136" s="1">
+        <v>3802049000000</v>
+      </c>
+      <c r="F136" s="1">
+        <v>3261681000000</v>
+      </c>
+      <c r="G136" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H136" s="1">
+        <v>16.27</v>
+      </c>
+      <c r="I136" s="1">
+        <v>4.02E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>86</v>
+      </c>
+      <c r="B137" t="s">
+        <v>87</v>
+      </c>
+      <c r="C137" t="s">
+        <v>88</v>
+      </c>
+      <c r="D137" t="s">
+        <v>57</v>
+      </c>
+      <c r="E137" s="1">
+        <v>4064345000000</v>
+      </c>
+      <c r="F137" s="1">
+        <v>3565044000000</v>
+      </c>
+      <c r="G137" s="1">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="H137" s="1">
+        <v>16.54</v>
+      </c>
+      <c r="I137" s="1">
+        <v>4.5600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>86</v>
+      </c>
+      <c r="B138" t="s">
+        <v>87</v>
+      </c>
+      <c r="C138" t="s">
+        <v>88</v>
+      </c>
+      <c r="D138" t="s">
+        <v>58</v>
+      </c>
+      <c r="E138" s="1">
+        <v>4400674000000</v>
+      </c>
+      <c r="F138" s="1">
+        <v>3933034000000</v>
+      </c>
+      <c r="G138" s="1">
+        <v>2.57</v>
+      </c>
+      <c r="H138" s="1">
+        <v>16.57</v>
+      </c>
+      <c r="I138" s="1">
+        <v>4.8599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>86</v>
+      </c>
+      <c r="B139" t="s">
+        <v>87</v>
+      </c>
+      <c r="C139" t="s">
+        <v>88</v>
+      </c>
+      <c r="D139" t="s">
+        <v>59</v>
+      </c>
+      <c r="E139" s="1">
+        <v>4844422000000</v>
+      </c>
+      <c r="F139" s="1">
+        <v>4490650000000</v>
+      </c>
+      <c r="G139" s="1">
+        <v>2.59</v>
+      </c>
+      <c r="H139" s="1">
+        <v>16.84</v>
+      </c>
+      <c r="I139" s="1">
+        <v>5.1799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>86</v>
+      </c>
+      <c r="B140" t="s">
+        <v>87</v>
+      </c>
+      <c r="C140" t="s">
+        <v>88</v>
+      </c>
+      <c r="D140" t="s">
+        <v>60</v>
+      </c>
+      <c r="E140" s="1">
+        <v>5628336000000</v>
+      </c>
+      <c r="F140" s="1">
+        <v>5029128000000</v>
+      </c>
+      <c r="G140" s="1">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H140" s="1">
+        <v>15.73</v>
+      </c>
+      <c r="I140" s="1">
+        <v>5.28E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>89</v>
+      </c>
+      <c r="B141" t="s">
+        <v>90</v>
+      </c>
+      <c r="C141" t="s">
+        <v>91</v>
+      </c>
+      <c r="D141" t="s">
+        <v>47</v>
+      </c>
+      <c r="E141" s="1">
+        <v>787211000000</v>
+      </c>
+      <c r="F141" s="1">
+        <v>575208000000</v>
+      </c>
+      <c r="G141" s="1">
+        <v>3.12</v>
+      </c>
+      <c r="H141" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="I141" s="1">
+        <v>4.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>89</v>
+      </c>
+      <c r="B142" t="s">
+        <v>90</v>
+      </c>
+      <c r="C142" t="s">
+        <v>91</v>
+      </c>
+      <c r="D142" t="s">
+        <v>48</v>
+      </c>
+      <c r="E142" s="1">
+        <v>945835000000</v>
+      </c>
+      <c r="F142" s="1">
+        <v>664924000000</v>
+      </c>
+      <c r="G142" s="1">
+        <v>3.33</v>
+      </c>
+      <c r="H142" s="1">
+        <v>14.84</v>
+      </c>
+      <c r="I142" s="1">
+        <v>9.9000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>89</v>
+      </c>
+      <c r="B143" t="s">
+        <v>90</v>
+      </c>
+      <c r="C143" t="s">
+        <v>91</v>
+      </c>
+      <c r="D143" t="s">
+        <v>49</v>
+      </c>
+      <c r="E143" s="1">
+        <v>1341927000000</v>
+      </c>
+      <c r="F143" s="1">
+        <v>1065649000000</v>
+      </c>
+      <c r="G143" s="1">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="H143" s="1">
+        <v>12.71</v>
+      </c>
+      <c r="I143" s="1">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>89</v>
+      </c>
+      <c r="B144" t="s">
+        <v>90</v>
+      </c>
+      <c r="C144" t="s">
+        <v>91</v>
+      </c>
+      <c r="D144" t="s">
+        <v>50</v>
+      </c>
+      <c r="E144" s="1">
+        <v>1730816000000</v>
+      </c>
+      <c r="F144" s="1">
+        <v>1264245000000</v>
+      </c>
+      <c r="G144" s="1">
+        <v>2.63</v>
+      </c>
+      <c r="H144" s="1">
+        <v>19.239999999999998</v>
+      </c>
+      <c r="I144" s="1">
+        <v>1.7399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>89</v>
+      </c>
+      <c r="B145" t="s">
+        <v>90</v>
+      </c>
+      <c r="C145" t="s">
+        <v>91</v>
+      </c>
+      <c r="D145" t="s">
+        <v>51</v>
+      </c>
+      <c r="E145" s="1">
+        <v>1968051000000</v>
+      </c>
+      <c r="F145" s="1">
+        <v>1434037000000</v>
+      </c>
+      <c r="G145" s="1">
+        <v>3</v>
+      </c>
+      <c r="H145" s="1">
+        <v>21.07</v>
+      </c>
+      <c r="I145" s="1">
+        <v>2.1399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>89</v>
+      </c>
+      <c r="B146" t="s">
+        <v>90</v>
+      </c>
+      <c r="C146" t="s">
+        <v>91</v>
+      </c>
+      <c r="D146" t="s">
+        <v>52</v>
+      </c>
+      <c r="E146" s="1">
+        <v>2255141000000</v>
+      </c>
+      <c r="F146" s="1">
+        <v>1662901000000</v>
+      </c>
+      <c r="G146" s="1">
+        <v>2.81</v>
+      </c>
+      <c r="H146" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="I146" s="1">
+        <v>2.3300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>89</v>
+      </c>
+      <c r="B147" t="s">
+        <v>90</v>
+      </c>
+      <c r="C147" t="s">
+        <v>91</v>
+      </c>
+      <c r="D147" t="s">
+        <v>53</v>
+      </c>
+      <c r="E147" s="1">
+        <v>2651678000000</v>
+      </c>
+      <c r="F147" s="1">
+        <v>1941175000000</v>
+      </c>
+      <c r="G147" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="H147" s="1">
+        <v>18.48</v>
+      </c>
+      <c r="I147" s="1">
+        <v>2.53E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>89</v>
+      </c>
+      <c r="B148" t="s">
+        <v>90</v>
+      </c>
+      <c r="C148" t="s">
+        <v>91</v>
+      </c>
+      <c r="D148" t="s">
+        <v>54</v>
+      </c>
+      <c r="E148" s="1">
+        <v>2849574000000</v>
+      </c>
+      <c r="F148" s="1">
+        <v>2187908000000</v>
+      </c>
+      <c r="G148" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="H148" s="1">
+        <v>16.84</v>
+      </c>
+      <c r="I148" s="1">
+        <v>2.7799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>89</v>
+      </c>
+      <c r="B149" t="s">
+        <v>90</v>
+      </c>
+      <c r="C149" t="s">
+        <v>91</v>
+      </c>
+      <c r="D149" t="s">
+        <v>55</v>
+      </c>
+      <c r="E149" s="1">
+        <v>3182775000000</v>
+      </c>
+      <c r="F149" s="1">
+        <v>2528780000000</v>
+      </c>
+      <c r="G149" s="1">
+        <v>2.31</v>
+      </c>
+      <c r="H149" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I149" s="1">
+        <v>2.7699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>89</v>
+      </c>
+      <c r="B150" t="s">
+        <v>90</v>
+      </c>
+      <c r="C150" t="s">
+        <v>91</v>
+      </c>
+      <c r="D150" t="s">
+        <v>56</v>
+      </c>
+      <c r="E150" s="1">
+        <v>3639290000000</v>
+      </c>
+      <c r="F150" s="1">
+        <v>2877927000000</v>
+      </c>
+      <c r="G150" s="1">
+        <v>2</v>
+      </c>
+      <c r="H150" s="1">
+        <v>12.58</v>
+      </c>
+      <c r="I150" s="1">
+        <v>2.76E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>89</v>
+      </c>
+      <c r="B151" t="s">
+        <v>90</v>
+      </c>
+      <c r="C151" t="s">
+        <v>91</v>
+      </c>
+      <c r="D151" t="s">
+        <v>57</v>
+      </c>
+      <c r="E151" s="1">
+        <v>3407636000000</v>
+      </c>
+      <c r="F151" s="1">
+        <v>3196887000000</v>
+      </c>
+      <c r="G151" s="1">
+        <v>1.79</v>
+      </c>
+      <c r="H151" s="1">
+        <v>11.67</v>
+      </c>
+      <c r="I151" s="1">
+        <v>3.4200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>89</v>
+      </c>
+      <c r="B152" t="s">
+        <v>90</v>
+      </c>
+      <c r="C152" t="s">
+        <v>91</v>
+      </c>
+      <c r="D152" t="s">
+        <v>58</v>
+      </c>
+      <c r="E152" s="1">
+        <v>3608412000000</v>
+      </c>
+      <c r="F152" s="1">
+        <v>3616423000000</v>
+      </c>
+      <c r="G152" s="1">
+        <v>1.94</v>
+      </c>
+      <c r="H152" s="1">
+        <v>11.39</v>
+      </c>
+      <c r="I152" s="1">
+        <v>3.5299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>89</v>
+      </c>
+      <c r="B153" t="s">
+        <v>90</v>
+      </c>
+      <c r="C153" t="s">
+        <v>91</v>
+      </c>
+      <c r="D153" t="s">
+        <v>59</v>
+      </c>
+      <c r="E153" s="1">
+        <v>4038820000000</v>
+      </c>
+      <c r="F153" s="1">
+        <v>3997987000000</v>
+      </c>
+      <c r="G153" s="1">
+        <v>2.12</v>
+      </c>
+      <c r="H153" s="1">
+        <v>11.07</v>
+      </c>
+      <c r="I153" s="1">
+        <v>3.5900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>89</v>
+      </c>
+      <c r="B154" t="s">
+        <v>90</v>
+      </c>
+      <c r="C154" t="s">
+        <v>91</v>
+      </c>
+      <c r="D154" t="s">
+        <v>60</v>
+      </c>
+      <c r="E154" s="1">
+        <v>4528399000000</v>
+      </c>
+      <c r="F154" s="1">
+        <v>4473307000000</v>
+      </c>
+      <c r="G154" s="1">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="H154" s="1">
+        <v>10.11</v>
+      </c>
+      <c r="I154" s="1">
+        <v>3.56E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>92</v>
+      </c>
+      <c r="B155" t="s">
+        <v>93</v>
+      </c>
+      <c r="C155" t="s">
+        <v>94</v>
+      </c>
+      <c r="D155" t="s">
+        <v>50</v>
+      </c>
+      <c r="E155" s="1">
+        <v>1063180000000</v>
+      </c>
+      <c r="F155" s="1">
+        <v>779518000000</v>
+      </c>
+      <c r="G155" s="1">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="H155" s="1">
+        <v>20.99</v>
+      </c>
+      <c r="I155" s="1">
+        <v>6.3E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>92</v>
+      </c>
+      <c r="B156" t="s">
+        <v>93</v>
+      </c>
+      <c r="C156" t="s">
+        <v>94</v>
+      </c>
+      <c r="D156" t="s">
+        <v>51</v>
+      </c>
+      <c r="E156" s="1">
+        <v>1225278000000</v>
+      </c>
+      <c r="F156" s="1">
+        <v>890365000000</v>
+      </c>
+      <c r="G156" s="1">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H156" s="1">
+        <v>20.440000000000001</v>
+      </c>
+      <c r="I156" s="1">
+        <v>1.23E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>92</v>
+      </c>
+      <c r="B157" t="s">
+        <v>93</v>
+      </c>
+      <c r="C157" t="s">
+        <v>94</v>
+      </c>
+      <c r="D157" t="s">
+        <v>52</v>
+      </c>
+      <c r="E157" s="1">
+        <v>1426941000000</v>
+      </c>
+      <c r="F157" s="1">
+        <v>1023187000000</v>
+      </c>
+      <c r="G157" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="H157" s="1">
+        <v>22.54</v>
+      </c>
+      <c r="I157" s="1">
+        <v>1.12E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>92</v>
+      </c>
+      <c r="B158" t="s">
+        <v>93</v>
+      </c>
+      <c r="C158" t="s">
+        <v>94</v>
+      </c>
+      <c r="D158" t="s">
+        <v>53</v>
+      </c>
+      <c r="E158" s="1">
+        <v>1605278000000</v>
+      </c>
+      <c r="F158" s="1">
+        <v>1166310000000</v>
+      </c>
+      <c r="G158" s="1">
+        <v>2.16</v>
+      </c>
+      <c r="H158" s="1">
+        <v>21.48</v>
+      </c>
+      <c r="I158" s="1">
+        <v>1.9900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>92</v>
+      </c>
+      <c r="B159" t="s">
+        <v>93</v>
+      </c>
+      <c r="C159" t="s">
+        <v>94</v>
+      </c>
+      <c r="D159" t="s">
+        <v>54</v>
+      </c>
+      <c r="E159" s="1">
+        <v>1785337000000</v>
+      </c>
+      <c r="F159" s="1">
+        <v>1299455000000</v>
+      </c>
+      <c r="G159" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H159" s="1">
+        <v>17.36</v>
+      </c>
+      <c r="I159" s="1">
+        <v>2.3699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>92</v>
+      </c>
+      <c r="B160" t="s">
+        <v>93</v>
+      </c>
+      <c r="C160" t="s">
+        <v>94</v>
+      </c>
+      <c r="D160" t="s">
+        <v>55</v>
+      </c>
+      <c r="E160" s="1">
+        <v>1993843000000</v>
+      </c>
+      <c r="F160" s="1">
+        <v>1513543000000</v>
+      </c>
+      <c r="G160" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="H160" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="I160" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>92</v>
+      </c>
+      <c r="B161" t="s">
+        <v>93</v>
+      </c>
+      <c r="C161" t="s">
+        <v>94</v>
+      </c>
+      <c r="D161" t="s">
+        <v>56</v>
+      </c>
+      <c r="E161" s="1">
+        <v>2120887000000</v>
+      </c>
+      <c r="F161" s="1">
+        <v>1795278000000</v>
+      </c>
+      <c r="G161" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="H161" s="1">
+        <v>13.8</v>
+      </c>
+      <c r="I161" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>92</v>
+      </c>
+      <c r="B162" t="s">
+        <v>93</v>
+      </c>
+      <c r="C162" t="s">
+        <v>94</v>
+      </c>
+      <c r="D162" t="s">
+        <v>57</v>
+      </c>
+      <c r="E162" s="1">
+        <v>2272665000000</v>
+      </c>
+      <c r="F162" s="1">
+        <v>2032056000000</v>
+      </c>
+      <c r="G162" s="1">
+        <v>1.52</v>
+      </c>
+      <c r="H162" s="1">
+        <v>12.75</v>
+      </c>
+      <c r="I162" s="1">
+        <v>2.7699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>92</v>
+      </c>
+      <c r="B163" t="s">
+        <v>93</v>
+      </c>
+      <c r="C163" t="s">
+        <v>94</v>
+      </c>
+      <c r="D163" t="s">
+        <v>58</v>
+      </c>
+      <c r="E163" s="1">
+        <v>2421329000000</v>
+      </c>
+      <c r="F163" s="1">
+        <v>2571961000000</v>
+      </c>
+      <c r="G163" s="1">
+        <v>1.74</v>
+      </c>
+      <c r="H163" s="1">
+        <v>11.55</v>
+      </c>
+      <c r="I163" s="1">
+        <v>2.86E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>92</v>
+      </c>
+      <c r="B164" t="s">
+        <v>93</v>
+      </c>
+      <c r="C164" t="s">
+        <v>94</v>
+      </c>
+      <c r="D164" t="s">
+        <v>59</v>
+      </c>
+      <c r="E164" s="1">
+        <v>3017888000000</v>
+      </c>
+      <c r="F164" s="1">
+        <v>2712204000000</v>
+      </c>
+      <c r="G164" s="1">
+        <v>2.31</v>
+      </c>
+      <c r="H164" s="1">
+        <v>11.77</v>
+      </c>
+      <c r="I164" s="1">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>92</v>
+      </c>
+      <c r="B165" t="s">
+        <v>93</v>
+      </c>
+      <c r="C165" t="s">
+        <v>94</v>
+      </c>
+      <c r="D165" t="s">
+        <v>60</v>
+      </c>
+      <c r="E165" s="1">
+        <v>3480667000000</v>
+      </c>
+      <c r="F165" s="1">
+        <v>3009482000000</v>
+      </c>
+      <c r="G165" s="1">
+        <v>2.29</v>
+      </c>
+      <c r="H165" s="1">
+        <v>10.71</v>
+      </c>
+      <c r="I165" s="1">
+        <v>3.0300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>95</v>
+      </c>
+      <c r="B166" t="s">
+        <v>96</v>
+      </c>
+      <c r="C166" t="s">
+        <v>97</v>
+      </c>
+      <c r="D166" t="s">
+        <v>47</v>
+      </c>
+      <c r="E166" s="1">
+        <v>438782259000</v>
+      </c>
+      <c r="F166" s="1">
+        <v>306077670000</v>
+      </c>
+      <c r="I166" s="1">
+        <v>3.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>95</v>
+      </c>
+      <c r="B167" t="s">
+        <v>96</v>
+      </c>
+      <c r="C167" t="s">
+        <v>97</v>
+      </c>
+      <c r="D167" t="s">
+        <v>48</v>
+      </c>
+      <c r="E167" s="1">
+        <v>485349577000</v>
+      </c>
+      <c r="F167" s="1">
+        <v>355477838000</v>
+      </c>
+      <c r="G167" s="1">
+        <v>2.76</v>
+      </c>
+      <c r="H167" s="1">
+        <v>18.23</v>
+      </c>
+      <c r="I167" s="1">
+        <v>3.2000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>95</v>
+      </c>
+      <c r="B168" t="s">
+        <v>96</v>
+      </c>
+      <c r="C168" t="s">
+        <v>97</v>
+      </c>
+      <c r="D168" t="s">
+        <v>49</v>
+      </c>
+      <c r="E168" s="1">
+        <v>581678388000</v>
+      </c>
+      <c r="F168" s="1">
+        <v>430225584000</v>
+      </c>
+      <c r="G168" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="H168" s="1">
+        <v>13.04</v>
+      </c>
+      <c r="I168" s="1">
+        <v>4.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>95</v>
+      </c>
+      <c r="B169" t="s">
+        <v>96</v>
+      </c>
+      <c r="C169" t="s">
+        <v>97</v>
+      </c>
+      <c r="D169" t="s">
+        <v>50</v>
+      </c>
+      <c r="E169" s="1">
+        <v>767622249000</v>
+      </c>
+      <c r="F169" s="1">
+        <v>527936681000</v>
+      </c>
+      <c r="G169" s="1">
+        <v>2.46</v>
+      </c>
+      <c r="H169" s="1">
+        <v>18.25</v>
+      </c>
+      <c r="I169" s="1">
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>95</v>
+      </c>
+      <c r="B170" t="s">
+        <v>96</v>
+      </c>
+      <c r="C170" t="s">
+        <v>97</v>
+      </c>
+      <c r="D170" t="s">
+        <v>51</v>
+      </c>
+      <c r="E170" s="1">
+        <v>896023654000</v>
+      </c>
+      <c r="F170" s="1">
+        <v>611462917000</v>
+      </c>
+      <c r="G170" s="1">
+        <v>2.81</v>
+      </c>
+      <c r="H170" s="1">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="I170" s="1">
+        <v>1.18E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>95</v>
+      </c>
+      <c r="B171" t="s">
+        <v>96</v>
+      </c>
+      <c r="C171" t="s">
+        <v>97</v>
+      </c>
+      <c r="D171" t="s">
+        <v>52</v>
+      </c>
+      <c r="E171" s="1">
+        <v>1036000112000</v>
+      </c>
+      <c r="F171" s="1">
+        <v>720168024000</v>
+      </c>
+      <c r="G171" s="1">
+        <v>2.71</v>
+      </c>
+      <c r="H171" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="I171" s="1">
+        <v>1.52E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>95</v>
+      </c>
+      <c r="B172" t="s">
+        <v>96</v>
+      </c>
+      <c r="C172" t="s">
+        <v>97</v>
+      </c>
+      <c r="D172" t="s">
+        <v>53</v>
+      </c>
+      <c r="E172" s="1">
+        <v>1177592000000</v>
+      </c>
+      <c r="F172" s="1">
+        <v>823169000000</v>
+      </c>
+      <c r="G172" s="1">
+        <v>2.67</v>
+      </c>
+      <c r="H172" s="1">
+        <v>19.3</v>
+      </c>
+      <c r="I172" s="1">
+        <v>2.0899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>95</v>
+      </c>
+      <c r="B173" t="s">
+        <v>96</v>
+      </c>
+      <c r="C173" t="s">
+        <v>97</v>
+      </c>
+      <c r="D173" t="s">
+        <v>54</v>
+      </c>
+      <c r="E173" s="1">
+        <v>1303216000000</v>
+      </c>
+      <c r="F173" s="1">
+        <v>939989000000</v>
+      </c>
+      <c r="G173" s="1">
+        <v>2.69</v>
+      </c>
+      <c r="H173" s="1">
+        <v>19.309999999999999</v>
+      </c>
+      <c r="I173" s="1">
+        <v>2.4199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>95</v>
+      </c>
+      <c r="B174" t="s">
+        <v>96</v>
+      </c>
+      <c r="C174" t="s">
+        <v>97</v>
+      </c>
+      <c r="D174" t="s">
+        <v>55</v>
+      </c>
+      <c r="E174" s="1">
+        <v>1351663000000</v>
+      </c>
+      <c r="F174" s="1">
+        <v>1069172000000</v>
+      </c>
+      <c r="G174" s="1">
+        <v>2.56</v>
+      </c>
+      <c r="H174" s="1">
+        <v>17.18</v>
+      </c>
+      <c r="I174" s="1">
+        <v>2.75E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>95</v>
+      </c>
+      <c r="B175" t="s">
+        <v>96</v>
+      </c>
+      <c r="C175" t="s">
+        <v>97</v>
+      </c>
+      <c r="D175" t="s">
+        <v>56</v>
+      </c>
+      <c r="E175" s="1">
+        <v>1368300000000</v>
+      </c>
+      <c r="F175" s="1">
+        <v>1216654000000</v>
+      </c>
+      <c r="G175" s="1">
+        <v>2.42</v>
+      </c>
+      <c r="H175" s="1">
+        <v>15.75</v>
+      </c>
+      <c r="I175" s="1">
+        <v>2.8899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>95</v>
+      </c>
+      <c r="B176" t="s">
+        <v>96</v>
+      </c>
+      <c r="C176" t="s">
+        <v>97</v>
+      </c>
+      <c r="D176" t="s">
+        <v>57</v>
+      </c>
+      <c r="E176" s="1">
+        <v>1433907000000</v>
+      </c>
+      <c r="F176" s="1">
+        <v>1394082000000</v>
+      </c>
+      <c r="G176" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="H176" s="1">
+        <v>13.54</v>
+      </c>
+      <c r="I176" s="1">
+        <v>3.1800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>95</v>
+      </c>
+      <c r="B177" t="s">
+        <v>96</v>
+      </c>
+      <c r="C177" t="s">
+        <v>97</v>
+      </c>
+      <c r="D177" t="s">
+        <v>58</v>
+      </c>
+      <c r="E177" s="1">
+        <v>1492492000000</v>
+      </c>
+      <c r="F177" s="1">
+        <v>1613516000000</v>
+      </c>
+      <c r="G177" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="H177" s="1">
+        <v>12.67</v>
+      </c>
+      <c r="I177" s="1">
+        <v>3.5799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>95</v>
+      </c>
+      <c r="B178" t="s">
+        <v>96</v>
+      </c>
+      <c r="C178" t="s">
+        <v>97</v>
+      </c>
+      <c r="D178" t="s">
+        <v>59</v>
+      </c>
+      <c r="E178" s="1">
+        <v>1656489000000</v>
+      </c>
+      <c r="F178" s="1">
+        <v>1872602000000</v>
+      </c>
+      <c r="G178" s="1">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="H178" s="1">
+        <v>10.61</v>
+      </c>
+      <c r="I178" s="1">
+        <v>3.4099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>95</v>
+      </c>
+      <c r="B179" t="s">
+        <v>96</v>
+      </c>
+      <c r="C179" t="s">
+        <v>97</v>
+      </c>
+      <c r="D179" t="s">
+        <v>60</v>
+      </c>
+      <c r="E179" s="1">
+        <v>2108993000000</v>
+      </c>
+      <c r="F179" s="1">
+        <v>2059825000000</v>
+      </c>
+      <c r="G179" s="1">
+        <v>2.59</v>
+      </c>
+      <c r="H179" s="1">
+        <v>8.64</v>
+      </c>
+      <c r="I179" s="1">
+        <v>3.3500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>98</v>
+      </c>
+      <c r="B180" t="s">
+        <v>99</v>
+      </c>
+      <c r="C180" t="s">
+        <v>100</v>
+      </c>
+      <c r="D180" t="s">
+        <v>60</v>
+      </c>
+      <c r="E180" s="1">
+        <v>314500257000</v>
+      </c>
+      <c r="F180" s="1">
+        <v>272259348000</v>
+      </c>
+      <c r="G180" s="1">
+        <v>2.27</v>
+      </c>
+      <c r="H180" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="I180" s="1">
+        <v>3.6600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>101</v>
+      </c>
+      <c r="B181" t="s">
+        <v>102</v>
+      </c>
+      <c r="C181" t="s">
+        <v>103</v>
+      </c>
+      <c r="D181" t="s">
+        <v>47</v>
+      </c>
+      <c r="E181" s="1">
+        <v>259686756000</v>
+      </c>
+      <c r="F181" s="1">
+        <v>157208101000</v>
+      </c>
+      <c r="H181" s="1">
+        <v>23</v>
+      </c>
+      <c r="I181" s="1">
+        <v>1.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>101</v>
+      </c>
+      <c r="B182" t="s">
+        <v>102</v>
+      </c>
+      <c r="C182" t="s">
+        <v>103</v>
+      </c>
+      <c r="D182" t="s">
+        <v>48</v>
+      </c>
+      <c r="E182" s="1">
+        <v>315840114000</v>
+      </c>
+      <c r="F182" s="1">
+        <v>193073700000</v>
+      </c>
+      <c r="H182" s="1">
+        <v>18</v>
+      </c>
+      <c r="I182" s="1">
+        <v>1.7899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>101</v>
+      </c>
+      <c r="B183" t="s">
+        <v>102</v>
+      </c>
+      <c r="C183" t="s">
+        <v>103</v>
+      </c>
+      <c r="D183" t="s">
+        <v>49</v>
+      </c>
+      <c r="E183" s="1">
+        <v>446938703000</v>
+      </c>
+      <c r="F183" s="1">
+        <v>273480942000</v>
+      </c>
+      <c r="H183" s="1">
+        <v>16</v>
+      </c>
+      <c r="I183" s="1">
+        <v>2.12E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>101</v>
+      </c>
+      <c r="B184" t="s">
+        <v>102</v>
+      </c>
+      <c r="C184" t="s">
+        <v>103</v>
+      </c>
+      <c r="D184" t="s">
+        <v>50</v>
+      </c>
+      <c r="E184" s="1">
+        <v>557724336000</v>
+      </c>
+      <c r="F184" s="1">
+        <v>334731772000</v>
+      </c>
+      <c r="H184" s="1">
+        <v>17</v>
+      </c>
+      <c r="I184" s="1">
+        <v>2.1399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>101</v>
+      </c>
+      <c r="B185" t="s">
+        <v>102</v>
+      </c>
+      <c r="C185" t="s">
+        <v>103</v>
+      </c>
+      <c r="D185" t="s">
+        <v>51</v>
+      </c>
+      <c r="E185" s="1">
+        <v>614241181000</v>
+      </c>
+      <c r="F185" s="1">
+        <v>405609515000</v>
+      </c>
+      <c r="H185" s="1">
+        <v>19</v>
+      </c>
+      <c r="I185" s="1">
+        <v>2.24E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>101</v>
+      </c>
+      <c r="B186" t="s">
+        <v>102</v>
+      </c>
+      <c r="C186" t="s">
+        <v>103</v>
+      </c>
+      <c r="D186" t="s">
+        <v>52</v>
+      </c>
+      <c r="E186" s="1">
+        <v>713772465000</v>
+      </c>
+      <c r="F186" s="1">
+        <v>496720234000</v>
+      </c>
+      <c r="H186" s="1">
+        <v>18</v>
+      </c>
+      <c r="I186" s="1">
+        <v>2.1100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>101</v>
+      </c>
+      <c r="B187" t="s">
+        <v>102</v>
+      </c>
+      <c r="C187" t="s">
+        <v>103</v>
+      </c>
+      <c r="D187" t="s">
+        <v>53</v>
+      </c>
+      <c r="E187" s="1">
+        <v>834479867000</v>
+      </c>
+      <c r="F187" s="1">
+        <v>584861833000</v>
+      </c>
+      <c r="H187" s="1">
+        <v>18.05</v>
+      </c>
+      <c r="I187" s="1">
+        <v>2.3099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>101</v>
+      </c>
+      <c r="B188" t="s">
+        <v>102</v>
+      </c>
+      <c r="C188" t="s">
+        <v>103</v>
+      </c>
+      <c r="D188" t="s">
+        <v>54</v>
+      </c>
+      <c r="E188" s="1">
+        <v>922813000000</v>
+      </c>
+      <c r="F188" s="1">
+        <v>675288000000</v>
+      </c>
+      <c r="H188" s="1">
+        <v>17.98</v>
+      </c>
+      <c r="I188" s="1">
+        <v>2.69E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>101</v>
+      </c>
+      <c r="B189" t="s">
+        <v>102</v>
+      </c>
+      <c r="C189" t="s">
+        <v>103</v>
+      </c>
+      <c r="D189" t="s">
+        <v>55</v>
+      </c>
+      <c r="E189" s="1">
+        <v>1022300000000</v>
+      </c>
+      <c r="F189" s="1">
+        <v>775390000000</v>
+      </c>
+      <c r="H189" s="1">
+        <v>16.260000000000002</v>
+      </c>
+      <c r="I189" s="1">
+        <v>2.6200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>101</v>
+      </c>
+      <c r="B190" t="s">
+        <v>102</v>
+      </c>
+      <c r="C190" t="s">
+        <v>103</v>
+      </c>
+      <c r="D190" t="s">
+        <v>56</v>
+      </c>
+      <c r="E190" s="1">
+        <v>1150904000000</v>
+      </c>
+      <c r="F190" s="1">
+        <v>899907000000</v>
+      </c>
+      <c r="H190" s="1">
+        <v>14.92</v>
+      </c>
+      <c r="I190" s="1">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>101</v>
+      </c>
+      <c r="B191" t="s">
+        <v>102</v>
+      </c>
+      <c r="C191" t="s">
+        <v>103</v>
+      </c>
+      <c r="D191" t="s">
+        <v>57</v>
+      </c>
+      <c r="E191" s="1">
+        <v>1268698000000</v>
+      </c>
+      <c r="F191" s="1">
+        <v>1077101000000</v>
+      </c>
+      <c r="H191" s="1">
+        <v>13.77</v>
+      </c>
+      <c r="I191" s="1">
+        <v>2.8199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>101</v>
+      </c>
+      <c r="B192" t="s">
+        <v>102</v>
+      </c>
+      <c r="C192" t="s">
+        <v>103</v>
+      </c>
+      <c r="D192" t="s">
+        <v>58</v>
+      </c>
+      <c r="E192" s="1">
+        <v>1386006000000</v>
+      </c>
+      <c r="F192" s="1">
+        <v>1386006000000</v>
+      </c>
+      <c r="H192" s="1">
+        <v>11.65</v>
+      </c>
+      <c r="I192" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>101</v>
+      </c>
+      <c r="B193" t="s">
+        <v>102</v>
+      </c>
+      <c r="C193" t="s">
+        <v>103</v>
+      </c>
+      <c r="D193" t="s">
+        <v>59</v>
+      </c>
+      <c r="E193" s="1">
+        <v>1529059000000</v>
+      </c>
+      <c r="F193" s="1">
+        <v>1446398000000</v>
+      </c>
+      <c r="H193" s="1">
+        <v>11.45</v>
+      </c>
+      <c r="I193" s="1">
+        <v>3.2599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>101</v>
+      </c>
+      <c r="B194" t="s">
+        <v>102</v>
+      </c>
+      <c r="C194" t="s">
+        <v>103</v>
+      </c>
+      <c r="D194" t="s">
+        <v>60</v>
+      </c>
+      <c r="E194" s="1">
+        <v>1656149000000</v>
+      </c>
+      <c r="F194" s="1">
+        <v>1567721000000</v>
+      </c>
+      <c r="G194" s="1">
+        <v>1.92</v>
+      </c>
+      <c r="H194" s="1">
+        <v>10.65</v>
+      </c>
+      <c r="I194" s="1">
+        <v>3.5200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>104</v>
+      </c>
+      <c r="B195" t="s">
+        <v>105</v>
+      </c>
+      <c r="C195" t="s">
+        <v>106</v>
+      </c>
+      <c r="D195" t="s">
+        <v>56</v>
+      </c>
+      <c r="E195" s="1">
+        <v>849073364000</v>
+      </c>
+      <c r="F195" s="1">
+        <v>553999300000</v>
+      </c>
+      <c r="G195" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="H195" s="1">
+        <v>14.35</v>
+      </c>
+      <c r="I195" s="1">
+        <v>3.2899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>104</v>
+      </c>
+      <c r="B196" t="s">
+        <v>105</v>
+      </c>
+      <c r="C196" t="s">
+        <v>106</v>
+      </c>
+      <c r="D196" t="s">
+        <v>57</v>
+      </c>
+      <c r="E196" s="1">
+        <v>923585324000</v>
+      </c>
+      <c r="F196" s="1">
+        <v>664021617000</v>
+      </c>
+      <c r="G196" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="H196" s="1">
+        <v>12.63</v>
+      </c>
+      <c r="I196" s="1">
+        <v>3.6299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>104</v>
+      </c>
+      <c r="B197" t="s">
+        <v>105</v>
+      </c>
+      <c r="C197" t="s">
+        <v>106</v>
+      </c>
+      <c r="D197" t="s">
+        <v>58</v>
+      </c>
+      <c r="E197" s="1">
+        <v>1042489605000</v>
+      </c>
+      <c r="F197" s="1">
+        <v>850695655000</v>
+      </c>
+      <c r="G197" s="1">
+        <v>1.76</v>
+      </c>
+      <c r="H197" s="1">
+        <v>12.67</v>
+      </c>
+      <c r="I197" s="1">
+        <v>3.8800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>104</v>
+      </c>
+      <c r="B198" t="s">
+        <v>105</v>
+      </c>
+      <c r="C198" t="s">
+        <v>106</v>
+      </c>
+      <c r="D198" t="s">
+        <v>59</v>
+      </c>
+      <c r="E198" s="1">
+        <v>1186071412000</v>
+      </c>
+      <c r="F198" s="1">
+        <v>972504678000</v>
+      </c>
+      <c r="G198" s="1">
+        <v>1.71</v>
+      </c>
+      <c r="H198" s="1">
+        <v>12.94</v>
+      </c>
+      <c r="I198" s="1">
+        <v>3.9399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>104</v>
+      </c>
+      <c r="B199" t="s">
+        <v>105</v>
+      </c>
+      <c r="C199" t="s">
+        <v>106</v>
+      </c>
+      <c r="D199" t="s">
+        <v>60</v>
+      </c>
+      <c r="E199" s="1">
+        <v>1297175690000</v>
+      </c>
+      <c r="F199" s="1">
+        <v>1098124072000</v>
+      </c>
+      <c r="G199" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="H199" s="1">
+        <v>12.09</v>
+      </c>
+      <c r="I199" s="1">
+        <v>4.0300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>107</v>
+      </c>
+      <c r="B200" t="s">
+        <v>108</v>
+      </c>
+      <c r="C200" t="s">
+        <v>109</v>
+      </c>
+      <c r="D200" t="s">
+        <v>59</v>
+      </c>
+      <c r="E200" s="1">
+        <v>1143740603000</v>
+      </c>
+      <c r="F200" s="1">
+        <v>1030171014000</v>
+      </c>
+      <c r="G200" s="1">
+        <v>2.34</v>
+      </c>
+      <c r="H200" s="1">
+        <v>12.92</v>
+      </c>
+      <c r="I200" s="1">
+        <v>2.01E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>107</v>
+      </c>
+      <c r="B201" t="s">
+        <v>108</v>
+      </c>
+      <c r="C201" t="s">
+        <v>109</v>
+      </c>
+      <c r="D201" t="s">
+        <v>60</v>
+      </c>
+      <c r="E201" s="1">
+        <v>1335636000000</v>
+      </c>
+      <c r="F201" s="1">
+        <v>1197698000000</v>
+      </c>
+      <c r="G201" s="1">
+        <v>2.19</v>
+      </c>
+      <c r="H201" s="1">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="I201" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>110</v>
+      </c>
+      <c r="B202" t="s">
+        <v>111</v>
+      </c>
+      <c r="C202" t="s">
+        <v>112</v>
+      </c>
+      <c r="D202" t="s">
+        <v>47</v>
+      </c>
+      <c r="E202" s="1">
+        <v>50931532000</v>
+      </c>
+      <c r="F202" s="1">
+        <v>30629237000</v>
+      </c>
+      <c r="H202" s="1">
+        <v>15.95</v>
+      </c>
+      <c r="I202" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>110</v>
+      </c>
+      <c r="B203" t="s">
+        <v>111</v>
+      </c>
+      <c r="C203" t="s">
+        <v>112</v>
+      </c>
+      <c r="D203" t="s">
+        <v>48</v>
+      </c>
+      <c r="E203" s="1">
+        <v>62730991000</v>
+      </c>
+      <c r="F203" s="1">
+        <v>40179527000</v>
+      </c>
+      <c r="G203" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="H203" s="1">
+        <v>13.71</v>
+      </c>
+      <c r="I203" s="1">
+        <v>2.6700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>110</v>
+      </c>
+      <c r="B204" t="s">
+        <v>111</v>
+      </c>
+      <c r="C204" t="s">
+        <v>112</v>
+      </c>
+      <c r="D204" t="s">
+        <v>49</v>
+      </c>
+      <c r="E204" s="1">
+        <v>102127223000</v>
+      </c>
+      <c r="F204" s="1">
+        <v>67028049000</v>
+      </c>
+      <c r="G204" s="1">
+        <v>2.64</v>
+      </c>
+      <c r="H204" s="1">
+        <v>13.23</v>
+      </c>
+      <c r="I204" s="1">
+        <v>1.95E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>110</v>
+      </c>
+      <c r="B205" t="s">
+        <v>111</v>
+      </c>
+      <c r="C205" t="s">
+        <v>112</v>
+      </c>
+      <c r="D205" t="s">
+        <v>50</v>
+      </c>
+      <c r="E205" s="1">
+        <v>139724328000</v>
+      </c>
+      <c r="F205" s="1">
+        <v>83891660000</v>
+      </c>
+      <c r="G205" s="1">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="H205" s="1">
+        <v>17.21</v>
+      </c>
+      <c r="I205" s="1">
+        <v>1.83E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>110</v>
+      </c>
+      <c r="B206" t="s">
+        <v>111</v>
+      </c>
+      <c r="C206" t="s">
+        <v>112</v>
+      </c>
+      <c r="D206" t="s">
+        <v>51</v>
+      </c>
+      <c r="E206" s="1">
+        <v>166424285000</v>
+      </c>
+      <c r="F206" s="1">
+        <v>102804969000</v>
+      </c>
+      <c r="G206" s="1">
+        <v>2.66</v>
+      </c>
+      <c r="H206" s="1">
+        <v>15.87</v>
+      </c>
+      <c r="I206" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>110</v>
+      </c>
+      <c r="B207" t="s">
+        <v>111</v>
+      </c>
+      <c r="C207" t="s">
+        <v>112</v>
+      </c>
+      <c r="D207" t="s">
+        <v>52</v>
+      </c>
+      <c r="E207" s="1">
+        <v>213655802000</v>
+      </c>
+      <c r="F207" s="1">
+        <v>125268655000</v>
+      </c>
+      <c r="G207" s="1">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H207" s="1">
+        <v>17.350000000000001</v>
+      </c>
+      <c r="I207" s="1">
+        <v>2.24E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>110</v>
+      </c>
+      <c r="B208" t="s">
+        <v>111</v>
+      </c>
+      <c r="C208" t="s">
+        <v>112</v>
+      </c>
+      <c r="D208" t="s">
+        <v>53</v>
+      </c>
+      <c r="E208" s="1">
+        <v>260149321000</v>
+      </c>
+      <c r="F208" s="1">
+        <v>146961400000</v>
+      </c>
+      <c r="G208" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H208" s="1">
+        <v>17.559999999999999</v>
+      </c>
+      <c r="I208" s="1">
+        <v>2.1899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>110</v>
+      </c>
+      <c r="B209" t="s">
+        <v>111</v>
+      </c>
+      <c r="C209" t="s">
+        <v>112</v>
+      </c>
+      <c r="D209" t="s">
+        <v>54</v>
+      </c>
+      <c r="E209" s="1">
+        <v>368328882000</v>
+      </c>
+      <c r="F209" s="1">
+        <v>174685206000</v>
+      </c>
+      <c r="G209" s="1">
+        <v>2.59</v>
+      </c>
+      <c r="H209" s="1">
+        <v>19</v>
+      </c>
+      <c r="I209" s="1">
+        <v>2.18E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>110</v>
+      </c>
+      <c r="B210" t="s">
+        <v>111</v>
+      </c>
+      <c r="C210" t="s">
+        <v>112</v>
+      </c>
+      <c r="D210" t="s">
+        <v>55</v>
+      </c>
+      <c r="E210" s="1">
+        <v>504197106000</v>
+      </c>
+      <c r="F210" s="1">
+        <v>251197549000</v>
+      </c>
+      <c r="G210" s="1">
+        <v>2.61</v>
+      </c>
+      <c r="H210" s="1">
+        <v>17.59</v>
+      </c>
+      <c r="I210" s="1">
+        <v>1.89E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>110</v>
+      </c>
+      <c r="B211" t="s">
+        <v>111</v>
+      </c>
+      <c r="C211" t="s">
+        <v>112</v>
+      </c>
+      <c r="D211" t="s">
+        <v>56</v>
+      </c>
+      <c r="E211" s="1">
+        <v>655202894000</v>
+      </c>
+      <c r="F211" s="1">
+        <v>331784815000</v>
+      </c>
+      <c r="G211" s="1">
+        <v>2.16</v>
+      </c>
+      <c r="H211" s="1">
+        <v>16.25</v>
+      </c>
+      <c r="I211" s="1">
+        <v>1.78E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>110</v>
+      </c>
+      <c r="B212" t="s">
+        <v>111</v>
+      </c>
+      <c r="C212" t="s">
+        <v>112</v>
+      </c>
+      <c r="D212" t="s">
+        <v>57</v>
+      </c>
+      <c r="E212" s="1">
+        <v>722622979000</v>
+      </c>
+      <c r="F212" s="1">
+        <v>388951934000</v>
+      </c>
+      <c r="G212" s="1">
+        <v>1.85</v>
+      </c>
+      <c r="H212" s="1">
+        <v>16.940000000000001</v>
+      </c>
+      <c r="I212" s="1">
+        <v>2.3300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>110</v>
+      </c>
+      <c r="B213" t="s">
+        <v>111</v>
+      </c>
+      <c r="C213" t="s">
+        <v>112</v>
+      </c>
+      <c r="D213" t="s">
+        <v>58</v>
+      </c>
+      <c r="E213" s="1">
+        <v>770555838000</v>
+      </c>
+      <c r="F213" s="1">
+        <v>480339718000</v>
+      </c>
+      <c r="G213" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="H213" s="1">
+        <v>16.96</v>
+      </c>
+      <c r="I213" s="1">
+        <v>2.6599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>110</v>
+      </c>
+      <c r="B214" t="s">
+        <v>111</v>
+      </c>
+      <c r="C214" t="s">
+        <v>112</v>
+      </c>
+      <c r="D214" t="s">
+        <v>59</v>
+      </c>
+      <c r="E214" s="1">
+        <v>849915979000</v>
+      </c>
+      <c r="F214" s="1">
+        <v>568864257000</v>
+      </c>
+      <c r="G214" s="1">
+        <v>1.85</v>
+      </c>
+      <c r="H214" s="1">
+        <v>16.53</v>
+      </c>
+      <c r="I214" s="1">
+        <v>3.04E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>110</v>
+      </c>
+      <c r="B215" t="s">
+        <v>111</v>
+      </c>
+      <c r="C215" t="s">
+        <v>112</v>
+      </c>
+      <c r="D215" t="s">
+        <v>60</v>
+      </c>
+      <c r="E215" s="1">
+        <v>959172635000</v>
+      </c>
+      <c r="F215" s="1">
+        <v>674586703000</v>
+      </c>
+      <c r="G215" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="H215" s="1">
+        <v>14.32</v>
+      </c>
+      <c r="I215" s="1">
+        <v>3.1800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>113</v>
+      </c>
+      <c r="B216" t="s">
+        <v>114</v>
+      </c>
+      <c r="C216" t="s">
+        <v>115</v>
+      </c>
+      <c r="D216" t="s">
+        <v>57</v>
+      </c>
+      <c r="E216" s="1">
+        <v>312797150000</v>
+      </c>
+      <c r="F216" s="1">
+        <v>148662682000</v>
+      </c>
+      <c r="G216" s="1">
+        <v>2.16</v>
+      </c>
+      <c r="H216" s="1">
+        <v>16.829999999999998</v>
+      </c>
+      <c r="I216" s="1">
+        <v>2.8799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>113</v>
+      </c>
+      <c r="B217" t="s">
+        <v>114</v>
+      </c>
+      <c r="C217" t="s">
+        <v>115</v>
+      </c>
+      <c r="D217" t="s">
+        <v>58</v>
+      </c>
+      <c r="E217" s="1">
+        <v>352292279000</v>
+      </c>
+      <c r="F217" s="1">
+        <v>185829871000</v>
+      </c>
+      <c r="G217" s="1">
+        <v>2.21</v>
+      </c>
+      <c r="H217" s="1">
+        <v>16.04</v>
+      </c>
+      <c r="I217" s="1">
+        <v>3.1199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>113</v>
+      </c>
+      <c r="B218" t="s">
+        <v>114</v>
+      </c>
+      <c r="C218" t="s">
+        <v>115</v>
+      </c>
+      <c r="D218" t="s">
+        <v>59</v>
+      </c>
+      <c r="E218" s="1">
+        <v>386719261000</v>
+      </c>
+      <c r="F218" s="1">
+        <v>231898493000</v>
+      </c>
+      <c r="G218" s="1">
+        <v>2.16</v>
+      </c>
+      <c r="H218" s="1">
+        <v>16.63</v>
+      </c>
+      <c r="I218" s="1">
+        <v>3.2899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>113</v>
+      </c>
+      <c r="B219" t="s">
+        <v>114</v>
+      </c>
+      <c r="C219" t="s">
+        <v>115</v>
+      </c>
+      <c r="D219" t="s">
+        <v>60</v>
+      </c>
+      <c r="E219" s="1">
+        <v>444987703000</v>
+      </c>
+      <c r="F219" s="1">
+        <v>284066782000</v>
+      </c>
+      <c r="G219" s="1">
+        <v>2.19</v>
+      </c>
+      <c r="H219" s="1">
+        <v>15.94</v>
+      </c>
+      <c r="I219" s="1">
+        <v>3.3099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>116</v>
+      </c>
+      <c r="B220" t="s">
+        <v>117</v>
+      </c>
+      <c r="C220" t="s">
+        <v>118</v>
+      </c>
+      <c r="D220" t="s">
+        <v>58</v>
+      </c>
+      <c r="E220" s="1">
+        <v>155977123000</v>
+      </c>
+      <c r="F220" s="1">
+        <v>132702596000</v>
+      </c>
+      <c r="G220" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="H220" s="1">
+        <v>12.61</v>
+      </c>
+      <c r="I220" s="1">
+        <v>4.3700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>116</v>
+      </c>
+      <c r="B221" t="s">
+        <v>117</v>
+      </c>
+      <c r="C221" t="s">
+        <v>118</v>
+      </c>
+      <c r="D221" t="s">
+        <v>59</v>
+      </c>
+      <c r="E221" s="1">
+        <v>169735771000</v>
+      </c>
+      <c r="F221" s="1">
+        <v>153031836000</v>
+      </c>
+      <c r="G221" s="1">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="H221" s="1">
+        <v>11.94</v>
+      </c>
+      <c r="I221" s="1">
+        <v>4.3299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>116</v>
+      </c>
+      <c r="B222" t="s">
+        <v>117</v>
+      </c>
+      <c r="C222" t="s">
+        <v>118</v>
+      </c>
+      <c r="D222" t="s">
+        <v>60</v>
+      </c>
+      <c r="E222" s="1">
+        <v>211729542000</v>
+      </c>
+      <c r="F222" s="1">
+        <v>171971798000</v>
+      </c>
+      <c r="G222" s="1">
+        <v>2.16</v>
+      </c>
+      <c r="H222" s="1">
+        <v>11.24</v>
+      </c>
+      <c r="I222" s="1">
+        <v>4.3900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>119</v>
+      </c>
+      <c r="B223" t="s">
+        <v>120</v>
+      </c>
+      <c r="C223" t="s">
+        <v>121</v>
+      </c>
+      <c r="D223" t="s">
+        <v>59</v>
+      </c>
+      <c r="E223" s="1">
+        <v>673401819000</v>
+      </c>
+      <c r="F223" s="1">
+        <v>416340800000</v>
+      </c>
+      <c r="G223" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="H223" s="1">
+        <v>12.82</v>
+      </c>
+      <c r="I223" s="1">
+        <v>4.2500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>119</v>
+      </c>
+      <c r="B224" t="s">
+        <v>120</v>
+      </c>
+      <c r="C224" t="s">
+        <v>121</v>
+      </c>
+      <c r="D224" t="s">
+        <v>60</v>
+      </c>
+      <c r="E224" s="1">
+        <v>724999814111</v>
+      </c>
+      <c r="F224" s="1">
+        <v>507885900000</v>
+      </c>
+      <c r="G224" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="H224" s="1">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="I224" s="1">
+        <v>4.24E-2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>122</v>
+      </c>
+      <c r="B225" t="s">
+        <v>123</v>
+      </c>
+      <c r="C225" t="s">
+        <v>124</v>
+      </c>
+      <c r="D225" t="s">
+        <v>47</v>
+      </c>
+      <c r="E225" s="1">
+        <v>55514044000</v>
+      </c>
+      <c r="F225" s="1">
+        <v>36502456000</v>
+      </c>
+      <c r="H225" s="1">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="I225" s="1">
+        <v>1.9599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>122</v>
+      </c>
+      <c r="B226" t="s">
+        <v>123</v>
+      </c>
+      <c r="C226" t="s">
+        <v>124</v>
+      </c>
+      <c r="D226" t="s">
+        <v>48</v>
+      </c>
+      <c r="E226" s="1">
+        <v>76221736664.410004</v>
+      </c>
+      <c r="F226" s="1">
+        <v>49155965919.209999</v>
+      </c>
+      <c r="H226" s="1">
+        <v>15.91</v>
+      </c>
+      <c r="I226" s="1">
+        <v>1.9300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>122</v>
+      </c>
+      <c r="B227" t="s">
+        <v>123</v>
+      </c>
+      <c r="C227" t="s">
+        <v>124</v>
+      </c>
+      <c r="D227" t="s">
+        <v>49</v>
+      </c>
+      <c r="E227" s="1">
+        <v>110752461000</v>
+      </c>
+      <c r="F227" s="1">
+        <v>81863849000</v>
+      </c>
+      <c r="H227" s="1">
+        <v>15.79</v>
+      </c>
+      <c r="I227" s="1">
+        <v>1.7100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>122</v>
+      </c>
+      <c r="B228" t="s">
+        <v>123</v>
+      </c>
+      <c r="C228" t="s">
+        <v>124</v>
+      </c>
+      <c r="D228" t="s">
+        <v>50</v>
+      </c>
+      <c r="E228" s="1">
+        <v>145827979000</v>
+      </c>
+      <c r="F228" s="1">
+        <v>101574407000</v>
+      </c>
+      <c r="H228" s="1">
+        <v>20.53</v>
+      </c>
+      <c r="I228" s="1">
+        <v>1.5900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>122</v>
+      </c>
+      <c r="B229" t="s">
+        <v>123</v>
+      </c>
+      <c r="C229" t="s">
+        <v>124</v>
+      </c>
+      <c r="D229" t="s">
+        <v>51</v>
+      </c>
+      <c r="E229" s="1">
+        <v>176736656000</v>
+      </c>
+      <c r="F229" s="1">
+        <v>122745110000</v>
+      </c>
+      <c r="G229" s="1">
+        <v>3.23</v>
+      </c>
+      <c r="H229" s="1">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="I229" s="1">
+        <v>2.53E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>122</v>
+      </c>
+      <c r="B230" t="s">
+        <v>123</v>
+      </c>
+      <c r="C230" t="s">
+        <v>124</v>
+      </c>
+      <c r="D230" t="s">
+        <v>52</v>
+      </c>
+      <c r="E230" s="1">
+        <v>207577270000</v>
+      </c>
+      <c r="F230" s="1">
+        <v>145617543000</v>
+      </c>
+      <c r="G230" s="1">
+        <v>3.48</v>
+      </c>
+      <c r="H230" s="1">
+        <v>19.97</v>
+      </c>
+      <c r="I230" s="1">
+        <v>2.63E-2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>122</v>
+      </c>
+      <c r="B231" t="s">
+        <v>123</v>
+      </c>
+      <c r="C231" t="s">
+        <v>124</v>
+      </c>
+      <c r="D231" t="s">
+        <v>53</v>
+      </c>
+      <c r="E231" s="1">
+        <v>255278327000</v>
+      </c>
+      <c r="F231" s="1">
+        <v>171189666000</v>
+      </c>
+      <c r="G231" s="1">
+        <v>3.05</v>
+      </c>
+      <c r="H231" s="1">
+        <v>20.41</v>
+      </c>
+      <c r="I231" s="1">
+        <v>2.69E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>122</v>
+      </c>
+      <c r="B232" t="s">
+        <v>123</v>
+      </c>
+      <c r="C232" t="s">
+        <v>124</v>
+      </c>
+      <c r="D232" t="s">
+        <v>54</v>
+      </c>
+      <c r="E232" s="1">
+        <v>306531829000</v>
+      </c>
+      <c r="F232" s="1">
+        <v>210062182000</v>
+      </c>
+      <c r="G232" s="1">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="H232" s="1">
+        <v>19.45</v>
+      </c>
+      <c r="I232" s="1">
+        <v>2.87E-2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>122</v>
+      </c>
+      <c r="B233" t="s">
+        <v>123</v>
+      </c>
+      <c r="C233" t="s">
+        <v>124</v>
+      </c>
+      <c r="D233" t="s">
+        <v>55</v>
+      </c>
+      <c r="E233" s="1">
+        <v>355685634000</v>
+      </c>
+      <c r="F233" s="1">
+        <v>255688580000</v>
+      </c>
+      <c r="G233" s="1">
+        <v>2.38</v>
+      </c>
+      <c r="H233" s="1">
+        <v>17.68</v>
+      </c>
+      <c r="I233" s="1">
+        <v>2.7900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>122</v>
+      </c>
+      <c r="B234" t="s">
+        <v>123</v>
+      </c>
+      <c r="C234" t="s">
+        <v>124</v>
+      </c>
+      <c r="D234" t="s">
+        <v>56</v>
+      </c>
+      <c r="E234" s="1">
+        <v>511404984000</v>
+      </c>
+      <c r="F234" s="1">
+        <v>302506678000</v>
+      </c>
+      <c r="G234" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="H234" s="1">
+        <v>17.739999999999998</v>
+      </c>
+      <c r="I234" s="1">
+        <v>2.7300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>122</v>
+      </c>
+      <c r="B235" t="s">
+        <v>123</v>
+      </c>
+      <c r="C235" t="s">
+        <v>124</v>
+      </c>
+      <c r="D235" t="s">
+        <v>57</v>
+      </c>
+      <c r="E235" s="1">
+        <v>565253904000</v>
+      </c>
+      <c r="F235" s="1">
+        <v>346200780000</v>
+      </c>
+      <c r="G235" s="1">
+        <v>1.94</v>
+      </c>
+      <c r="H235" s="1">
+        <v>19.02</v>
+      </c>
+      <c r="I235" s="1">
+        <v>2.98E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>122</v>
+      </c>
+      <c r="B236" t="s">
+        <v>123</v>
+      </c>
+      <c r="C236" t="s">
+        <v>124</v>
+      </c>
+      <c r="D236" t="s">
+        <v>58</v>
+      </c>
+      <c r="E236" s="1">
+        <v>646721375000</v>
+      </c>
+      <c r="F236" s="1">
+        <v>429086927000</v>
+      </c>
+      <c r="G236" s="1">
+        <v>1.97</v>
+      </c>
+      <c r="H236" s="1">
+        <v>18.72</v>
+      </c>
+      <c r="I236" s="1">
+        <v>3.44E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>122</v>
+      </c>
+      <c r="B237" t="s">
+        <v>123</v>
+      </c>
+      <c r="C237" t="s">
+        <v>124</v>
+      </c>
+      <c r="D237" t="s">
+        <v>59</v>
+      </c>
+      <c r="E237" s="1">
+        <v>771521094000</v>
+      </c>
+      <c r="F237" s="1">
+        <v>529101797000</v>
+      </c>
+      <c r="G237" s="1">
+        <v>1.84</v>
+      </c>
+      <c r="H237" s="1">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="I237" s="1">
+        <v>3.6400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>122</v>
+      </c>
+      <c r="B238" t="s">
+        <v>123</v>
+      </c>
+      <c r="C238" t="s">
+        <v>124</v>
+      </c>
+      <c r="D238" t="s">
+        <v>60</v>
+      </c>
+      <c r="E238" s="1">
+        <v>933164000000</v>
+      </c>
+      <c r="F238" s="1">
+        <v>620222000000</v>
+      </c>
+      <c r="G238" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H238" s="1">
+        <v>14.9</v>
+      </c>
+      <c r="I238" s="1">
+        <v>3.4799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>125</v>
+      </c>
+      <c r="B239" t="s">
+        <v>126</v>
+      </c>
+      <c r="C239" t="s">
+        <v>127</v>
+      </c>
+      <c r="D239" t="s">
+        <v>59</v>
+      </c>
+      <c r="E239" s="1">
+        <v>9314066000000</v>
+      </c>
+      <c r="F239" s="1">
+        <v>4974186000000</v>
+      </c>
+      <c r="G239" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H239" s="1">
+        <v>13.1</v>
+      </c>
+      <c r="I239" s="1">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>125</v>
+      </c>
+      <c r="B240" t="s">
+        <v>126</v>
+      </c>
+      <c r="C240" t="s">
+        <v>127</v>
+      </c>
+      <c r="D240" t="s">
+        <v>60</v>
+      </c>
+      <c r="E240" s="1">
+        <v>10358029000000</v>
+      </c>
+      <c r="F240" s="1">
+        <v>5716258000000</v>
+      </c>
+      <c r="G240" s="1">
+        <v>2.36</v>
+      </c>
+      <c r="H240" s="1">
+        <v>11.84</v>
+      </c>
+      <c r="I240" s="1">
+        <v>1.9699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>128</v>
+      </c>
+      <c r="B241" t="s">
+        <v>129</v>
+      </c>
+      <c r="C241" t="s">
+        <v>130</v>
+      </c>
+      <c r="D241" t="s">
+        <v>56</v>
+      </c>
+      <c r="E241" s="1">
+        <v>65256547995.400002</v>
+      </c>
+      <c r="F241" s="1">
+        <v>44324618921.339996</v>
+      </c>
+      <c r="G241" s="1">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="H241" s="1">
+        <v>9.68</v>
+      </c>
+      <c r="I241" s="1">
+        <v>4.53E-2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>128</v>
+      </c>
+      <c r="B242" t="s">
+        <v>129</v>
+      </c>
+      <c r="C242" t="s">
+        <v>130</v>
+      </c>
+      <c r="D242" t="s">
+        <v>57</v>
+      </c>
+      <c r="E242" s="1">
+        <v>70544023813.690002</v>
+      </c>
+      <c r="F242" s="1">
+        <v>49111074060.330002</v>
+      </c>
+      <c r="G242" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="H242" s="1">
+        <v>9.43</v>
+      </c>
+      <c r="I242" s="1">
+        <v>4.3200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>128</v>
+      </c>
+      <c r="B243" t="s">
+        <v>129</v>
+      </c>
+      <c r="C243" t="s">
+        <v>130</v>
+      </c>
+      <c r="D243" t="s">
+        <v>58</v>
+      </c>
+      <c r="E243" s="1">
+        <v>79503686221.399994</v>
+      </c>
+      <c r="F243" s="1">
+        <v>60159749146.379997</v>
+      </c>
+      <c r="G243" s="1">
+        <v>2.56</v>
+      </c>
+      <c r="H243" s="1">
+        <v>9.39</v>
+      </c>
+      <c r="I243" s="1">
+        <v>4.3700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>128</v>
+      </c>
+      <c r="B244" t="s">
+        <v>129</v>
+      </c>
+      <c r="C244" t="s">
+        <v>130</v>
+      </c>
+      <c r="D244" t="s">
+        <v>59</v>
+      </c>
+      <c r="E244" s="1">
+        <v>90798221024.660004</v>
+      </c>
+      <c r="F244" s="1">
+        <v>71405979878.940002</v>
+      </c>
+      <c r="G244" s="1">
+        <v>2.74</v>
+      </c>
+      <c r="H244" s="1">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="I244" s="1">
+        <v>4.3799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>128</v>
+      </c>
+      <c r="B245" t="s">
+        <v>129</v>
+      </c>
+      <c r="C245" t="s">
+        <v>130</v>
+      </c>
+      <c r="D245" t="s">
+        <v>60</v>
+      </c>
+      <c r="E245" s="1">
+        <v>109794021600.02</v>
+      </c>
+      <c r="F245" s="1">
+        <v>84855628516.339996</v>
+      </c>
+      <c r="G245" s="1">
+        <v>2.74</v>
+      </c>
+      <c r="H245" s="1">
+        <v>9.15</v>
+      </c>
+      <c r="I245" s="1">
+        <v>4.1200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>131</v>
+      </c>
+      <c r="B246" t="s">
+        <v>132</v>
+      </c>
+      <c r="C246" t="s">
+        <v>133</v>
+      </c>
+      <c r="D246" t="s">
+        <v>56</v>
+      </c>
+      <c r="E246" s="1">
+        <v>95461370000</v>
+      </c>
+      <c r="F246" s="1">
+        <v>60257169000</v>
+      </c>
+      <c r="G246" s="1">
+        <v>1.96</v>
+      </c>
+      <c r="H246" s="1">
+        <v>11.52</v>
+      </c>
+      <c r="I246" s="1">
+        <v>3.5900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>131</v>
+      </c>
+      <c r="B247" t="s">
+        <v>132</v>
+      </c>
+      <c r="C247" t="s">
+        <v>133</v>
+      </c>
+      <c r="D247" t="s">
+        <v>57</v>
+      </c>
+      <c r="E247" s="1">
+        <v>106826561000</v>
+      </c>
+      <c r="F247" s="1">
+        <v>66073689000</v>
+      </c>
+      <c r="G247" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="H247" s="1">
+        <v>11.04</v>
+      </c>
+      <c r="I247" s="1">
+        <v>3.6400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>131</v>
+      </c>
+      <c r="B248" t="s">
+        <v>132</v>
+      </c>
+      <c r="C248" t="s">
+        <v>133</v>
+      </c>
+      <c r="D248" t="s">
+        <v>58</v>
+      </c>
+      <c r="E248" s="1">
+        <v>115808239000</v>
+      </c>
+      <c r="F248" s="1">
+        <v>75342525000</v>
+      </c>
+      <c r="G248" s="1">
+        <v>2.16</v>
+      </c>
+      <c r="H248" s="1">
+        <v>10.68</v>
+      </c>
+      <c r="I248" s="1">
+        <v>3.6200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>131</v>
+      </c>
+      <c r="B249" t="s">
+        <v>132</v>
+      </c>
+      <c r="C249" t="s">
+        <v>133</v>
+      </c>
+      <c r="D249" t="s">
+        <v>59</v>
+      </c>
+      <c r="E249" s="1">
+        <v>131358121000</v>
+      </c>
+      <c r="F249" s="1">
+        <v>84930666000</v>
+      </c>
+      <c r="G249" s="1">
+        <v>2.02</v>
+      </c>
+      <c r="H249" s="1">
+        <v>11.22</v>
+      </c>
+      <c r="I249" s="1">
+        <v>3.7400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>131</v>
+      </c>
+      <c r="B250" t="s">
+        <v>132</v>
+      </c>
+      <c r="C250" t="s">
+        <v>133</v>
+      </c>
+      <c r="D250" t="s">
+        <v>60</v>
+      </c>
+      <c r="E250" s="1">
+        <v>141332321000</v>
+      </c>
+      <c r="F250" s="1">
+        <v>99693249000</v>
+      </c>
+      <c r="G250" s="1">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="H250" s="1">
+        <v>10.84</v>
+      </c>
+      <c r="I250" s="1">
+        <v>3.7600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>134</v>
+      </c>
+      <c r="B251" t="s">
+        <v>135</v>
+      </c>
+      <c r="C251" t="s">
+        <v>136</v>
+      </c>
+      <c r="D251" t="s">
+        <v>56</v>
+      </c>
+      <c r="E251" s="1">
+        <v>368307031000</v>
+      </c>
+      <c r="F251" s="1">
+        <v>246607678000</v>
+      </c>
+      <c r="G251" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="H251" s="1">
+        <v>11.83</v>
+      </c>
+      <c r="I251" s="1">
+        <v>2.1700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>134</v>
+      </c>
+      <c r="B252" t="s">
+        <v>135</v>
+      </c>
+      <c r="C252" t="s">
+        <v>136</v>
+      </c>
+      <c r="D252" t="s">
+        <v>57</v>
+      </c>
+      <c r="E252" s="1">
+        <v>448626861000</v>
+      </c>
+      <c r="F252" s="1">
+        <v>283834844000</v>
+      </c>
+      <c r="G252" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="H252" s="1">
+        <v>11.34</v>
+      </c>
+      <c r="I252" s="1">
+        <v>2.1600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>134</v>
+      </c>
+      <c r="B253" t="s">
+        <v>135</v>
+      </c>
+      <c r="C253" t="s">
+        <v>136</v>
+      </c>
+      <c r="D253" t="s">
+        <v>58</v>
+      </c>
+      <c r="E253" s="1">
+        <v>532782689000</v>
+      </c>
+      <c r="F253" s="1">
+        <v>350477682000</v>
+      </c>
+      <c r="G253" s="1">
+        <v>1.71</v>
+      </c>
+      <c r="H253" s="1">
+        <v>11.01</v>
+      </c>
+      <c r="I253" s="1">
+        <v>2.23E-2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>134</v>
+      </c>
+      <c r="B254" t="s">
+        <v>135</v>
+      </c>
+      <c r="C254" t="s">
+        <v>136</v>
+      </c>
+      <c r="D254" t="s">
+        <v>59</v>
+      </c>
+      <c r="E254" s="1">
+        <v>613901751000</v>
+      </c>
+      <c r="F254" s="1">
+        <v>414055893000</v>
+      </c>
+      <c r="G254" s="1">
+        <v>1.83</v>
+      </c>
+      <c r="H254" s="1">
+        <v>12.15</v>
+      </c>
+      <c r="I254" s="1">
+        <v>2.41E-2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>134</v>
+      </c>
+      <c r="B255" t="s">
+        <v>135</v>
+      </c>
+      <c r="C255" t="s">
+        <v>136</v>
+      </c>
+      <c r="D255" t="s">
+        <v>60</v>
+      </c>
+      <c r="E255" s="1">
+        <v>703680405000</v>
+      </c>
+      <c r="F255" s="1">
+        <v>483648968000</v>
+      </c>
+      <c r="G255" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="H255" s="1">
+        <v>11.14</v>
+      </c>
+      <c r="I255" s="1">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>137</v>
+      </c>
+      <c r="B256" t="s">
+        <v>138</v>
+      </c>
+      <c r="C256" t="s">
+        <v>139</v>
+      </c>
+      <c r="D256" t="s">
+        <v>56</v>
+      </c>
+      <c r="E256" s="1">
+        <v>262998070000</v>
+      </c>
+      <c r="F256" s="1">
+        <v>102493710000</v>
+      </c>
+      <c r="G256" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="H256" s="1">
+        <v>21.67</v>
+      </c>
+      <c r="I256" s="1">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>137</v>
+      </c>
+      <c r="B257" t="s">
+        <v>138</v>
+      </c>
+      <c r="C257" t="s">
+        <v>139</v>
+      </c>
+      <c r="D257" t="s">
+        <v>57</v>
+      </c>
+      <c r="E257" s="1">
+        <v>297530647000</v>
+      </c>
+      <c r="F257" s="1">
+        <v>125514253000</v>
+      </c>
+      <c r="G257" s="1">
+        <v>2.67</v>
+      </c>
+      <c r="H257" s="1">
+        <v>19.760000000000002</v>
+      </c>
+      <c r="I257" s="1">
+        <v>2.9700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>137</v>
+      </c>
+      <c r="B258" t="s">
+        <v>138</v>
+      </c>
+      <c r="C258" t="s">
+        <v>139</v>
+      </c>
+      <c r="D258" t="s">
+        <v>58</v>
+      </c>
+      <c r="E258" s="1">
+        <v>312478883000</v>
+      </c>
+      <c r="F258" s="1">
+        <v>170304666000</v>
+      </c>
+      <c r="G258" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="H258" s="1">
+        <v>18.88</v>
+      </c>
+      <c r="I258" s="1">
+        <v>3.39E-2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>137</v>
+      </c>
+      <c r="B259" t="s">
+        <v>138</v>
+      </c>
+      <c r="C259" t="s">
+        <v>139</v>
+      </c>
+      <c r="D259" t="s">
+        <v>59</v>
+      </c>
+      <c r="E259" s="1">
+        <v>333233919000</v>
+      </c>
+      <c r="F259" s="1">
+        <v>204515282000</v>
+      </c>
+      <c r="G259" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="H259" s="1">
+        <v>17.41</v>
+      </c>
+      <c r="I259" s="1">
+        <v>3.6600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>137</v>
+      </c>
+      <c r="B260" t="s">
+        <v>138</v>
+      </c>
+      <c r="C260" t="s">
+        <v>139</v>
+      </c>
+      <c r="D260" t="s">
+        <v>60</v>
+      </c>
+      <c r="E260" s="1">
+        <v>360885494000</v>
+      </c>
+      <c r="F260" s="1">
+        <v>231009095000</v>
+      </c>
+      <c r="G260" s="1">
+        <v>2.52</v>
+      </c>
+      <c r="H260" s="1">
+        <v>15.75</v>
+      </c>
+      <c r="I260" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>140</v>
+      </c>
+      <c r="B261" t="s">
+        <v>141</v>
+      </c>
+      <c r="C261" t="s">
+        <v>142</v>
+      </c>
+      <c r="D261" t="s">
+        <v>56</v>
+      </c>
+      <c r="E261" s="1">
+        <v>65387774000</v>
+      </c>
+      <c r="F261" s="1">
+        <v>45445471000</v>
+      </c>
+      <c r="H261" s="1">
+        <v>9.48</v>
+      </c>
+      <c r="I261" s="1">
+        <v>4.19E-2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>140</v>
+      </c>
+      <c r="B262" t="s">
+        <v>141</v>
+      </c>
+      <c r="C262" t="s">
+        <v>142</v>
+      </c>
+      <c r="D262" t="s">
+        <v>57</v>
+      </c>
+      <c r="E262" s="1">
+        <v>71464870000</v>
+      </c>
+      <c r="F262" s="1">
+        <v>49085069000</v>
+      </c>
+      <c r="H262" s="1">
+        <v>9.06</v>
+      </c>
+      <c r="I262" s="1">
+        <v>4.07E-2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>140</v>
+      </c>
+      <c r="B263" t="s">
+        <v>143</v>
+      </c>
+      <c r="C263" t="s">
+        <v>142</v>
+      </c>
+      <c r="D263" t="s">
+        <v>58</v>
+      </c>
+      <c r="E263" s="1">
+        <v>82748000000</v>
+      </c>
+      <c r="F263" s="1">
+        <v>59391000000</v>
+      </c>
+      <c r="H263" s="1">
+        <v>9.08</v>
+      </c>
+      <c r="I263" s="1">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>140</v>
+      </c>
+      <c r="B264" t="s">
+        <v>143</v>
+      </c>
+      <c r="C264" t="s">
+        <v>142</v>
+      </c>
+      <c r="D264" t="s">
+        <v>59</v>
+      </c>
+      <c r="E264" s="1">
+        <v>95955987000</v>
+      </c>
+      <c r="F264" s="1">
+        <v>68230108000</v>
+      </c>
+      <c r="G264" s="1">
+        <v>2.71</v>
+      </c>
+      <c r="H264" s="1">
+        <v>8.44</v>
+      </c>
+      <c r="I264" s="1">
+        <v>3.5200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>140</v>
+      </c>
+      <c r="B265" t="s">
+        <v>143</v>
+      </c>
+      <c r="C265" t="s">
+        <v>142</v>
+      </c>
+      <c r="D265" t="s">
+        <v>60</v>
+      </c>
+      <c r="E265" s="1">
+        <v>106725338000</v>
+      </c>
+      <c r="F265" s="1">
+        <v>78558537000</v>
+      </c>
+      <c r="G265" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H265" s="1">
+        <v>8.07</v>
+      </c>
+      <c r="I265" s="1">
+        <v>3.49E-2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>144</v>
+      </c>
+      <c r="B266" t="s">
+        <v>145</v>
+      </c>
+      <c r="C266" t="s">
+        <v>146</v>
+      </c>
+      <c r="D266" t="s">
+        <v>58</v>
+      </c>
+      <c r="E266" s="1">
+        <v>192610288000</v>
+      </c>
+      <c r="F266" s="1">
+        <v>136973948000</v>
+      </c>
+      <c r="G266" s="1">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H266" s="1">
+        <v>12.86</v>
+      </c>
+      <c r="I266" s="1">
+        <v>2.7199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>144</v>
+      </c>
+      <c r="B267" t="s">
+        <v>145</v>
+      </c>
+      <c r="C267" t="s">
+        <v>146</v>
+      </c>
+      <c r="D267" t="s">
+        <v>59</v>
+      </c>
+      <c r="E267" s="1">
+        <v>218805639000</v>
+      </c>
+      <c r="F267" s="1">
+        <v>178709006000</v>
+      </c>
+      <c r="H267" s="1">
+        <v>12.38</v>
+      </c>
+      <c r="I267" s="1">
+        <v>2.8799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>144</v>
+      </c>
+      <c r="B268" t="s">
+        <v>145</v>
+      </c>
+      <c r="C268" t="s">
+        <v>146</v>
+      </c>
+      <c r="D268" t="s">
+        <v>60</v>
+      </c>
+      <c r="E268" s="1">
+        <v>250693543000</v>
+      </c>
+      <c r="F268" s="1">
+        <v>217849520000</v>
+      </c>
+      <c r="G268" s="1">
+        <v>2.52</v>
+      </c>
+      <c r="H268" s="1">
+        <v>11.58</v>
+      </c>
+      <c r="I268" s="1">
+        <v>2.8199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>147</v>
+      </c>
+      <c r="B269" t="s">
+        <v>148</v>
+      </c>
+      <c r="C269" t="s">
+        <v>149</v>
+      </c>
+      <c r="D269" t="s">
+        <v>60</v>
+      </c>
+      <c r="E269" s="1">
+        <v>155450878057.81</v>
+      </c>
+      <c r="F269" s="1">
+        <v>140646890366.57999</v>
+      </c>
+      <c r="G269" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="H269" s="1">
+        <v>11.23</v>
+      </c>
+      <c r="I269" s="1">
+        <v>2.0400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>150</v>
+      </c>
+      <c r="B270" t="s">
+        <v>151</v>
+      </c>
+      <c r="C270" t="s">
+        <v>152</v>
+      </c>
+      <c r="D270" t="s">
+        <v>58</v>
+      </c>
+      <c r="E270" s="1">
+        <v>267758206000</v>
+      </c>
+      <c r="F270" s="1">
+        <v>159572792000</v>
+      </c>
+      <c r="G270" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="H270" s="1">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="I270" s="1">
+        <v>2.5499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>150</v>
+      </c>
+      <c r="B271" t="s">
+        <v>151</v>
+      </c>
+      <c r="C271" t="s">
+        <v>152</v>
+      </c>
+      <c r="D271" t="s">
+        <v>59</v>
+      </c>
+      <c r="E271" s="1">
+        <v>292125786000</v>
+      </c>
+      <c r="F271" s="1">
+        <v>195911665000</v>
+      </c>
+      <c r="G271" s="1">
+        <v>2.16</v>
+      </c>
+      <c r="H271" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I271" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>150</v>
+      </c>
+      <c r="B272" t="s">
+        <v>151</v>
+      </c>
+      <c r="C272" t="s">
+        <v>152</v>
+      </c>
+      <c r="D272" t="s">
+        <v>60</v>
+      </c>
+      <c r="E272" s="1">
+        <v>316512735000</v>
+      </c>
+      <c r="F272" s="1">
+        <v>237959190000</v>
+      </c>
+      <c r="G272" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="H272" s="1">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="I272" s="1">
+        <v>2.6700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>153</v>
+      </c>
+      <c r="B273" t="s">
+        <v>154</v>
+      </c>
+      <c r="C273" t="s">
+        <v>155</v>
+      </c>
+      <c r="D273" t="s">
+        <v>56</v>
+      </c>
+      <c r="E273" s="1">
+        <v>907412486000</v>
+      </c>
+      <c r="F273" s="1">
+        <v>649379685000</v>
+      </c>
+      <c r="G273" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="H273" s="1">
+        <v>14.47</v>
+      </c>
+      <c r="I273" s="1">
+        <v>2.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>153</v>
+      </c>
+      <c r="B274" t="s">
+        <v>154</v>
+      </c>
+      <c r="C274" t="s">
+        <v>155</v>
+      </c>
+      <c r="D274" t="s">
+        <v>57</v>
+      </c>
+      <c r="E274" s="1">
+        <v>1007832860000</v>
+      </c>
+      <c r="F274" s="1">
+        <v>747289498000</v>
+      </c>
+      <c r="G274" s="1">
+        <v>1.58</v>
+      </c>
+      <c r="H274" s="1">
+        <v>13.72</v>
+      </c>
+      <c r="I274" s="1">
+        <v>2.35E-2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>153</v>
+      </c>
+      <c r="B275" t="s">
+        <v>154</v>
+      </c>
+      <c r="C275" t="s">
+        <v>155</v>
+      </c>
+      <c r="D275" t="s">
+        <v>58</v>
+      </c>
+      <c r="E275" s="1">
+        <v>1093327642000</v>
+      </c>
+      <c r="F275" s="1">
+        <v>889208996000</v>
+      </c>
+      <c r="G275" s="1">
+        <v>1.59</v>
+      </c>
+      <c r="H275" s="1">
+        <v>12.43</v>
+      </c>
+      <c r="I275" s="1">
+        <v>2.5499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>153</v>
+      </c>
+      <c r="B276" t="s">
+        <v>154</v>
+      </c>
+      <c r="C276" t="s">
+        <v>155</v>
+      </c>
+      <c r="D276" t="s">
+        <v>59</v>
+      </c>
+      <c r="E276" s="1">
+        <v>1185480495000</v>
+      </c>
+      <c r="F276" s="1">
+        <v>1040497278000</v>
+      </c>
+      <c r="G276" s="1">
+        <v>1.94</v>
+      </c>
+      <c r="H276" s="1">
+        <v>12.65</v>
+      </c>
+      <c r="I276" s="1">
+        <v>2.53E-2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>153</v>
+      </c>
+      <c r="B277" t="s">
+        <v>154</v>
+      </c>
+      <c r="C277" t="s">
+        <v>155</v>
+      </c>
+      <c r="D277" t="s">
+        <v>60</v>
+      </c>
+      <c r="E277" s="1">
+        <v>1329869837000</v>
+      </c>
+      <c r="F277" s="1">
+        <v>1165964075000</v>
+      </c>
+      <c r="G277" s="1">
+        <v>2.14</v>
+      </c>
+      <c r="H277" s="1">
+        <v>11.91</v>
+      </c>
+      <c r="I277" s="1">
+        <v>2.53E-2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>156</v>
+      </c>
+      <c r="B278" t="s">
+        <v>157</v>
+      </c>
+      <c r="C278" t="s">
+        <v>158</v>
+      </c>
+      <c r="D278" t="s">
+        <v>56</v>
+      </c>
+      <c r="E278" s="1">
+        <v>73641400000</v>
+      </c>
+      <c r="F278" s="1">
+        <v>52526115000</v>
+      </c>
+      <c r="G278" s="1">
+        <v>2.34</v>
+      </c>
+      <c r="H278" s="1">
+        <v>9.92</v>
+      </c>
+      <c r="I278" s="1">
+        <v>4.7399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>156</v>
+      </c>
+      <c r="B279" t="s">
+        <v>157</v>
+      </c>
+      <c r="C279" t="s">
+        <v>158</v>
+      </c>
+      <c r="D279" t="s">
+        <v>57</v>
+      </c>
+      <c r="E279" s="1">
+        <v>79307913000</v>
+      </c>
+      <c r="F279" s="1">
+        <v>55853493000</v>
+      </c>
+      <c r="G279" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="H279" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="I279" s="1">
+        <v>4.9599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>156</v>
+      </c>
+      <c r="B280" t="s">
+        <v>157</v>
+      </c>
+      <c r="C280" t="s">
+        <v>158</v>
+      </c>
+      <c r="D280" t="s">
+        <v>58</v>
+      </c>
+      <c r="E280" s="1">
+        <v>84758488000</v>
+      </c>
+      <c r="F280" s="1">
+        <v>62986116000</v>
+      </c>
+      <c r="G280" s="1">
+        <v>2.67</v>
+      </c>
+      <c r="H280" s="1">
+        <v>8.92</v>
+      </c>
+      <c r="I280" s="1">
+        <v>5.2299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>156</v>
+      </c>
+      <c r="B281" t="s">
+        <v>157</v>
+      </c>
+      <c r="C281" t="s">
+        <v>158</v>
+      </c>
+      <c r="D281" t="s">
+        <v>59</v>
+      </c>
+      <c r="E281" s="1">
+        <v>93108992000</v>
+      </c>
+      <c r="F281" s="1">
+        <v>70197725000</v>
+      </c>
+      <c r="G281" s="1">
+        <v>2.46</v>
+      </c>
+      <c r="H281" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="I281" s="1">
+        <v>5.0500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>156</v>
+      </c>
+      <c r="B282" t="s">
+        <v>157</v>
+      </c>
+      <c r="C282" t="s">
+        <v>158</v>
+      </c>
+      <c r="D282" t="s">
+        <v>60</v>
+      </c>
+      <c r="E282" s="1">
+        <v>105759036000</v>
+      </c>
+      <c r="F282" s="1">
+        <v>80229111000</v>
+      </c>
+      <c r="G282" s="1">
+        <v>2.19</v>
+      </c>
+      <c r="H282" s="1">
+        <v>8.85</v>
+      </c>
+      <c r="I282" s="1">
+        <v>4.7300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>159</v>
+      </c>
+      <c r="B283" t="s">
+        <v>160</v>
+      </c>
+      <c r="C283" t="s">
+        <v>161</v>
+      </c>
+      <c r="D283" t="s">
+        <v>59</v>
+      </c>
+      <c r="E283" s="1">
+        <v>222114144042</v>
+      </c>
+      <c r="F283" s="1">
+        <v>160417535895</v>
+      </c>
+      <c r="G283" s="1">
+        <v>2.09</v>
+      </c>
+      <c r="H283" s="1">
+        <v>9.85</v>
+      </c>
+      <c r="I283" s="1">
+        <v>2.8500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>159</v>
+      </c>
+      <c r="B284" t="s">
+        <v>160</v>
+      </c>
+      <c r="C284" t="s">
+        <v>161</v>
+      </c>
+      <c r="D284" t="s">
+        <v>60</v>
+      </c>
+      <c r="E284" s="1">
+        <v>250109032099</v>
+      </c>
+      <c r="F284" s="1">
+        <v>181033837941</v>
+      </c>
+      <c r="G284" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="H284" s="1">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="I284" s="1">
+        <v>2.9100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>162</v>
+      </c>
+      <c r="B285" t="s">
+        <v>163</v>
+      </c>
+      <c r="C285" t="s">
+        <v>164</v>
+      </c>
+      <c r="D285" t="s">
+        <v>56</v>
+      </c>
+      <c r="E285" s="1">
+        <v>88810115000</v>
+      </c>
+      <c r="F285" s="1">
+        <v>66419172000</v>
+      </c>
+      <c r="G285" s="1">
+        <v>3.22</v>
+      </c>
+      <c r="H285" s="1">
+        <v>11.91</v>
+      </c>
+      <c r="I285" s="1">
+        <v>3.4599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>162</v>
+      </c>
+      <c r="B286" t="s">
+        <v>163</v>
+      </c>
+      <c r="C286" t="s">
+        <v>164</v>
+      </c>
+      <c r="D286" t="s">
+        <v>57</v>
+      </c>
+      <c r="E286" s="1">
+        <v>99004967000</v>
+      </c>
+      <c r="F286" s="1">
+        <v>77811115000</v>
+      </c>
+      <c r="G286" s="1">
+        <v>2.91</v>
+      </c>
+      <c r="H286" s="1">
+        <v>12.52</v>
+      </c>
+      <c r="I286" s="1">
+        <v>3.4299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>162</v>
+      </c>
+      <c r="B287" t="s">
+        <v>163</v>
+      </c>
+      <c r="C287" t="s">
+        <v>164</v>
+      </c>
+      <c r="D287" t="s">
+        <v>58</v>
+      </c>
+      <c r="E287" s="1">
+        <v>113100856000</v>
+      </c>
+      <c r="F287" s="1">
+        <v>92795352000</v>
+      </c>
+      <c r="G287" s="1">
+        <v>3</v>
+      </c>
+      <c r="H287" s="1">
+        <v>12.62</v>
+      </c>
+      <c r="I287" s="1">
+        <v>3.4099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>162</v>
+      </c>
+      <c r="B288" t="s">
+        <v>163</v>
+      </c>
+      <c r="C288" t="s">
+        <v>164</v>
+      </c>
+      <c r="D288" t="s">
+        <v>59</v>
+      </c>
+      <c r="E288" s="1">
+        <v>134702125000</v>
+      </c>
+      <c r="F288" s="1">
+        <v>109944416000</v>
+      </c>
+      <c r="G288" s="1">
+        <v>3.41</v>
+      </c>
+      <c r="H288" s="1">
+        <v>11.52</v>
+      </c>
+      <c r="I288" s="1">
+        <v>3.6200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>162</v>
+      </c>
+      <c r="B289" t="s">
+        <v>163</v>
+      </c>
+      <c r="C289" t="s">
+        <v>164</v>
+      </c>
+      <c r="D289" t="s">
+        <v>60</v>
+      </c>
+      <c r="E289" s="1">
+        <v>158797835000</v>
+      </c>
+      <c r="F289" s="1">
+        <v>131722075000</v>
+      </c>
+      <c r="G289" s="1">
+        <v>3.18</v>
+      </c>
+      <c r="H289" s="1">
+        <v>9.24</v>
+      </c>
+      <c r="I289" s="1">
+        <v>3.5700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>165</v>
+      </c>
+      <c r="B290" t="s">
+        <v>166</v>
+      </c>
+      <c r="C290" t="s">
+        <v>167</v>
+      </c>
+      <c r="D290" t="s">
+        <v>58</v>
+      </c>
+      <c r="E290" s="1">
+        <v>114709933000</v>
+      </c>
+      <c r="F290" s="1">
+        <v>87141804000</v>
+      </c>
+      <c r="G290" s="1">
+        <v>2.08</v>
+      </c>
+      <c r="H290" s="1">
+        <v>11.93</v>
+      </c>
+      <c r="I290" s="1">
+        <v>1.4800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>165</v>
+      </c>
+      <c r="B291" t="s">
+        <v>166</v>
+      </c>
+      <c r="C291" t="s">
+        <v>167</v>
+      </c>
+      <c r="D291" t="s">
+        <v>59</v>
+      </c>
+      <c r="E291" s="1">
+        <v>131185416000</v>
+      </c>
+      <c r="F291" s="1">
+        <v>101956243000</v>
+      </c>
+      <c r="G291" s="1">
+        <v>2.12</v>
+      </c>
+      <c r="H291" s="1">
+        <v>10.8</v>
+      </c>
+      <c r="I291" s="1">
+        <v>1.9300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>165</v>
+      </c>
+      <c r="B292" t="s">
+        <v>166</v>
+      </c>
+      <c r="C292" t="s">
+        <v>167</v>
+      </c>
+      <c r="D292" t="s">
+        <v>60</v>
+      </c>
+      <c r="E292" s="1">
+        <v>148174925000</v>
+      </c>
+      <c r="F292" s="1">
+        <v>120689850000</v>
+      </c>
+      <c r="G292" s="1">
+        <v>1.77</v>
+      </c>
+      <c r="H292" s="1">
+        <v>10.14</v>
+      </c>
+      <c r="I292" s="1">
+        <v>1.9800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>168</v>
+      </c>
+      <c r="B293" t="s">
+        <v>169</v>
+      </c>
+      <c r="C293" t="s">
+        <v>170</v>
+      </c>
+      <c r="D293" t="s">
+        <v>58</v>
+      </c>
+      <c r="E293" s="1">
+        <v>177911247000</v>
+      </c>
+      <c r="F293" s="1">
+        <v>126386870000</v>
+      </c>
+      <c r="G293" s="1">
+        <v>1.63</v>
+      </c>
+      <c r="H293" s="1">
+        <v>8.36</v>
+      </c>
+      <c r="I293" s="1">
+        <v>1.17E-2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>168</v>
+      </c>
+      <c r="B294" t="s">
+        <v>169</v>
+      </c>
+      <c r="C294" t="s">
+        <v>170</v>
+      </c>
+      <c r="D294" t="s">
+        <v>59</v>
+      </c>
+      <c r="E294" s="1">
+        <v>215425403000</v>
+      </c>
+      <c r="F294" s="1">
+        <v>172795443000</v>
+      </c>
+      <c r="G294" s="1">
+        <v>2.13</v>
+      </c>
+      <c r="H294" s="1">
+        <v>8.27</v>
+      </c>
+      <c r="I294" s="1">
+        <v>1.11E-2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>168</v>
+      </c>
+      <c r="B295" t="s">
+        <v>169</v>
+      </c>
+      <c r="C295" t="s">
+        <v>170</v>
+      </c>
+      <c r="D295" t="s">
+        <v>60</v>
+      </c>
+      <c r="E295" s="1">
+        <v>275750710000</v>
+      </c>
+      <c r="F295" s="1">
+        <v>206747221000</v>
+      </c>
+      <c r="G295" s="1">
+        <v>2.13</v>
+      </c>
+      <c r="H295" s="1">
+        <v>8.56</v>
+      </c>
+      <c r="I295" s="1">
+        <v>9.7000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>171</v>
+      </c>
+      <c r="B296" t="s">
+        <v>172</v>
+      </c>
+      <c r="C296" t="s">
+        <v>173</v>
+      </c>
+      <c r="D296" t="s">
+        <v>58</v>
+      </c>
+      <c r="E296" s="1">
+        <v>341202398000</v>
+      </c>
+      <c r="F296" s="1">
+        <v>204403060000</v>
+      </c>
+      <c r="G296" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H296" s="1">
+        <v>16.91</v>
+      </c>
+      <c r="I296" s="1">
+        <v>2.8299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>171</v>
+      </c>
+      <c r="B297" t="s">
+        <v>172</v>
+      </c>
+      <c r="C297" t="s">
+        <v>173</v>
+      </c>
+      <c r="D297" t="s">
+        <v>59</v>
+      </c>
+      <c r="E297" s="1">
+        <v>387178394000</v>
+      </c>
+      <c r="F297" s="1">
+        <v>260322832000</v>
+      </c>
+      <c r="G297" s="1">
+        <v>2.42</v>
+      </c>
+      <c r="H297" s="1">
+        <v>15.61</v>
+      </c>
+      <c r="I297" s="1">
+        <v>2.87E-2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>171</v>
+      </c>
+      <c r="B298" t="s">
+        <v>172</v>
+      </c>
+      <c r="C298" t="s">
+        <v>173</v>
+      </c>
+      <c r="D298" t="s">
+        <v>60</v>
+      </c>
+      <c r="E298" s="1">
+        <v>463645835000</v>
+      </c>
+      <c r="F298" s="1">
+        <v>314997031000</v>
+      </c>
+      <c r="G298" s="1">
+        <v>2.58</v>
+      </c>
+      <c r="H298" s="1">
+        <v>13.76</v>
+      </c>
+      <c r="I298" s="1">
+        <v>2.9399999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>